--- a/recalculare init value.xlsx
+++ b/recalculare init value.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
   <si>
     <t>R_b</t>
   </si>
@@ -538,6 +539,51 @@
   </si>
   <si>
     <t>expresie cu pie</t>
+  </si>
+  <si>
+    <t>Ecuatie rhs</t>
+  </si>
+  <si>
+    <t>Ecuatie lhs</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>Patient hh</t>
+  </si>
+  <si>
+    <t>Impatient hh</t>
+  </si>
+  <si>
+    <t>Capital goods producers</t>
+  </si>
+  <si>
+    <t>Entrepreneurs</t>
+  </si>
+  <si>
+    <t>gamma_b</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Aggregation and equilibrium</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>e_mk)_d</t>
+  </si>
+  <si>
+    <t>Exogenous</t>
+  </si>
+  <si>
+    <t>Aux</t>
   </si>
 </sst>
 </file>
@@ -545,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="183" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -566,15 +612,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -582,23 +634,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,11 +1381,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <f t="shared" ref="T4:T64" si="0">Q4=M4</f>
+        <f t="shared" ref="T4:T36" si="0">Q4=M4</f>
         <v>1</v>
       </c>
       <c r="U4" t="b">
-        <f t="shared" ref="U4:U64" si="1">S4=O4</f>
+        <f t="shared" ref="U4:U36" si="1">S4=O4</f>
         <v>1</v>
       </c>
     </row>
@@ -1317,7 +1460,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K6">
         <v>0.55000000000000004</v>
@@ -1430,6 +1573,9 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>7.8220000000000001</v>
+      </c>
       <c r="L8">
         <v>6</v>
       </c>
@@ -2049,7 +2195,7 @@
       </c>
       <c r="O20" s="6">
         <f>J10* (1-J6) * EXP(B25) / ( EXP(B6) * EXP(B38) )</f>
-        <v>0.85055804297538751</v>
+        <v>0.51033482578523237</v>
       </c>
       <c r="Q20">
         <v>0.85055772296658494</v>
@@ -2066,7 +2212,7 @@
       </c>
       <c r="U20" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2094,7 +2240,7 @@
       </c>
       <c r="O21" s="6">
         <f>(1-J10) * (1-J6) * EXP(B25) / ( EXP(B14) * EXP(B38) )</f>
-        <v>0.17325326683734624</v>
+        <v>0.10395196010240774</v>
       </c>
       <c r="Q21">
         <v>0.17325340282144272</v>
@@ -2111,7 +2257,7 @@
       </c>
       <c r="U21" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -2277,7 +2423,7 @@
       </c>
       <c r="O25" s="6">
         <f>EXP(B53) * (EXP(B28)*EXP(B21))^J6 * ( EXP(B6)^J10* EXP(B14)^(1-J10) ) ^ (1-J6)</f>
-        <v>1.3077476679325895</v>
+        <v>2.3553369410735461</v>
       </c>
       <c r="Q25">
         <v>1.307749864950517</v>
@@ -2294,7 +2440,7 @@
       </c>
       <c r="U25" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2367,7 +2513,7 @@
       </c>
       <c r="O27" s="6">
         <f xml:space="preserve"> J6 * EXP(B53) * EXP(B28)^(J6-1) * EXP(B21)^(J6-1) * ( EXP(B6)^J10 * EXP(B14)^(1-J10) ) ^ (1-J6) /EXP(B38)</f>
-        <v>4.7855939508841282E-2</v>
+        <v>0.18962151710576272</v>
       </c>
       <c r="Q27">
         <v>4.7855941476672333E-2</v>
@@ -2384,7 +2530,7 @@
       </c>
       <c r="U27" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -3109,7 +3255,7 @@
         <v>0.41698681086954853</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D58" si="3">LN(J30)</f>
+        <f t="shared" ref="D56:D57" si="3">LN(J30)</f>
         <v>0.41698681086954853</v>
       </c>
       <c r="E56" t="s">
@@ -3328,7 +3474,7 @@
         <v>169</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J67:J68" si="5">EXP(D57)/(EXP(D57)-1)</f>
+        <f t="shared" ref="J68" si="5">EXP(D57)/(EXP(D57)-1)</f>
         <v>2.9328059999999998</v>
       </c>
       <c r="K68">
@@ -3525,4 +3671,2537 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N75" sqref="M75:N76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <f>EXP(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> 0.0062^2</f>
+        <v>3.8439999999999998E-5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>400*C69</f>
+        <v>3.8633978443434343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <f>C73</f>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="C4">
+        <f>EXP(B4)</f>
+        <v>1.0787907247453703</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> 0.05^2</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.86700376630640397</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="e">
+        <f>B35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="4">
+        <f>400*C67</f>
+        <v>5.6215338128637553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.93510700000000002</v>
+      </c>
+      <c r="C5">
+        <f>EXP(B5)</f>
+        <v>2.5474860241610293</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3">
+        <f>0.0658^2</f>
+        <v>4.3296400000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="e">
+        <f>B34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="4">
+        <f>400*C66</f>
+        <v>5.6215338128637553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C6">
+        <f>EXP(B6)</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> 0.3721^2</f>
+        <v>0.13845840999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="23" t="e">
+        <f>B32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N6" s="4">
+        <f>B59*100</f>
+        <v>1.1600000000000001E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C7">
+        <f>EXP(B7)</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> 0.0034^2</f>
+        <v>1.1559999999999999E-5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <f>I8</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <f>B52</f>
+        <v>84.079700000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <f>B12*100</f>
+        <v>16.468900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0.164689</v>
+      </c>
+      <c r="C8">
+        <f>EXP(B8)</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> 0.0023^2</f>
+        <v>5.2900000000000002E-6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>B51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="4">
+        <f>B11*100</f>
+        <v>31.3687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.164689</v>
+      </c>
+      <c r="C9">
+        <f>EXP(B9)</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> 0.1454^2</f>
+        <v>2.1141159999999999E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <f>B58</f>
+        <v>-26.297700000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <f>B81*100</f>
+        <v>26.8308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="e">
+        <f>100*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" t="e">
+        <f>EXP(B10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> 0.0051^2</f>
+        <v>2.6010000000000003E-5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10">
+        <f>I50/I65*(I17-I14+I65*I17*(I14-1))/((I14*-1)*(I17-1))</f>
+        <v>-6.9116794557613159E-2</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>B18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="4">
+        <f>B14*100</f>
+        <v>13.357699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C11">
+        <f>EXP(B11)</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> 0.0488^2</f>
+        <v>2.3814400000000003E-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>B37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="4">
+        <f>B31*100</f>
+        <v>-194.96199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>0.164689</v>
+      </c>
+      <c r="C12">
+        <f>EXP(B12)</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <f xml:space="preserve"> 0.0128^2</f>
+        <v>1.6384E-4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12">
+        <f>I51</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>B22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="4">
+        <f>B19*100</f>
+        <v>84.079700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>-4.8832899999999997</v>
+      </c>
+      <c r="C13">
+        <f>EXP(B13)</f>
+        <v>7.5720609217937588E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <f xml:space="preserve"> 0.0018^2</f>
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13">
+        <f>0.1*I12</f>
+        <v>4.6946406588904595E-3</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>B33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="4">
+        <f>400*C68</f>
+        <v>2.2930769159214646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.133577</v>
+      </c>
+      <c r="C14">
+        <f>EXP(B14)</f>
+        <v>1.1429092667605822</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> 1.0099^2</f>
+        <v>1.0198980100000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(I15:I16)</f>
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4" t="e">
+        <f>B10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="4">
+        <f>100*B42</f>
+        <v>-157.28399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>-2.19923</v>
+      </c>
+      <c r="C15">
+        <f>EXP(B15)</f>
+        <v>0.11088850965030168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <f xml:space="preserve"> 0.0144^2</f>
+        <v>2.0735999999999999E-4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <f>I16</f>
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15" s="4">
+        <f>(1-I4)*C25/(C17-I4*C17)</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="N15" s="4">
+        <f>C50</f>
+        <v>1.1297868651243366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1.91801</v>
+      </c>
+      <c r="C16">
+        <f>EXP(B16)</f>
+        <v>0.14689900046675919</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4">
+        <f>I30*C23/C30-C50*C63+C50*C63*I9</f>
+        <v>-2.5494880162568734E-7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.122029</v>
+      </c>
+      <c r="C17">
+        <f>EXP(B17)</f>
+        <v>0.88512269957214185</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>-1.46025</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4">
+        <f>C50</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="N17" s="4">
+        <f>I9*C50*(1+C68)/C59</f>
+        <v>1.1297868831373645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" t="e">
+        <f>EXP(B18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4">
+        <f>(1-C27)*C46+C46^(1+I44)/C77*C27/C50-I37*(C61-C59^I29*I47^(1-I29))*C61+I9*C50/C50*I37*(C61-C59^I29*I47^(1-I29))*C61^2/C59</f>
+        <v>1.6953127878839303E-6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.84079700000000002</v>
+      </c>
+      <c r="C19">
+        <f>EXP(B19)</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4">
+        <f>C61</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <f>C77/C77*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.94079699999999999</v>
+      </c>
+      <c r="C20">
+        <f>EXP(B20)</f>
+        <v>2.5620225367973446</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
+        <f>C17+C63*(C30-C30)+C21</f>
+        <v>3.2033365567177907</v>
+      </c>
+      <c r="N20" s="4">
+        <f>C46*C77+(1+C68)*C21/C59+C40/I23</f>
+        <v>3.2033364915705507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.84079700000000002</v>
+      </c>
+      <c r="C21">
+        <f>EXP(B21)</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21" s="4">
+        <f>(1-I4)*C25/(C16-C16*I4)</f>
+        <v>6.807398258821264</v>
+      </c>
+      <c r="N21" s="4">
+        <f>C49</f>
+        <v>6.8073982588212605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" t="e">
+        <f>EXP(B22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4">
+        <f>I30*C23/C29-C49*C63+I8*C49*C63+C73*C63*C54*C59</f>
+        <v>-2.4617386515934925E-6</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <f>EXP(B23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23" s="4">
+        <f>C49-I8*C49*(1+C67)/C59</f>
+        <v>7.6906658964724706E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f>C73*(1+C67)</f>
+        <v>7.6906567346997232E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <f>EXP(B24)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24" s="4">
+        <f>(1-C27)*C44+C44^(1+I44)/C76*C27/C49-I37*(C60-C59^I29*I47^(1-I29))*C60+I8*C49/C49*I37*(C60-C59^I29*I47^(1-I29))*C60^2/C59</f>
+        <v>1.3258941644480195E-6</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>EXP(B25)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25" s="4">
+        <f>C60</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <f>C76/C76*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <f>EXP(B26)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4">
+        <f>C16+C63*(C29-C29)+(1+C67)*C9/C59</f>
+        <v>1.3424952266649002</v>
+      </c>
+      <c r="N26" s="4">
+        <f>C76*C44+C9</f>
+        <v>1.3424951734543942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <f>LN(I18)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="C27">
+        <f>EXP(B27)</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="15"/>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27" s="4">
+        <f>(1+C67)*C9</f>
+        <v>1.1955962261981548</v>
+      </c>
+      <c r="N27" s="4">
+        <f>C54*C63*C29*C59</f>
+        <v>1.1955962991856997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <f>LN(I19)</f>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="C28">
+        <f>EXP(B28)</f>
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.158112794106546</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28" s="24">
+        <f>C41</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="N28" s="24">
+        <f>(1-I11)*C41+(1-I34/2*(C31*C24/C31-1)^2)</f>
+        <v>6.5507452166552476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>-2.95404</v>
+      </c>
+      <c r="C29">
+        <f>EXP(B29)</f>
+        <v>5.2128680095646571E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0.30019780401748902</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <f>C64*(1-I34/2*(C31/C31*C24-1)^2-I34*(C31/C31*C24-1)*C31/C31*C24)+I7*C48/C48*C64*I34*(C31/C31*C24-1)*C24*C31/C31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>-5.3536599999999997E-2</v>
+      </c>
+      <c r="C30">
+        <f>EXP(B30)</f>
+        <v>0.94787124828124314</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4">
+        <f>(1-I4)/(C15-I4*C15)</f>
+        <v>9.0180669138182417</v>
+      </c>
+      <c r="N30" s="4">
+        <f>C48</f>
+        <v>9.0180669138182381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>-1.9496199999999999</v>
+      </c>
+      <c r="C31">
+        <f>EXP(B31)</f>
+        <v>0.1423281460072057</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2">
+        <v>7.9800595904463698</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="14"/>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31" s="24">
+        <f>C72*C53*C64*C59*(1-I11)+I7*C48*C64*(1-I11)*C70*C75-(I12*C75-1)+I13/2*(C75-1)^2</f>
+        <v>1.3975985985617867</v>
+      </c>
+      <c r="N31" s="24">
+        <f>C48*C64</f>
+        <v>9.0180669138182381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" t="e">
+        <f>EXP(B32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.0442671874948193</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="14"/>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32" s="24">
+        <f>C77</f>
+        <v>0.85055772296658494</v>
+      </c>
+      <c r="N32" s="24">
+        <f>I43*(1-I6)*C80/(C78*C47)</f>
+        <v>0.51033482578523237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="e">
+        <f>400*(EXP(#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" t="e">
+        <f>EXP(B33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.7753737710421298</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="14"/>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33" s="24">
+        <f>C76</f>
+        <v>0.17325340282144272</v>
+      </c>
+      <c r="N33" s="24">
+        <f>(1-I43)*(1-I6)*C80/(C78*C45)</f>
+        <v>0.10395196010240774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="e">
+        <f>400*EXP(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C34" t="e">
+        <f>EXP(B34)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10.030556224800799</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="14"/>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34" s="4">
+        <f>C48-C72*(1+C66)</f>
+        <v>8.9161843032233694</v>
+      </c>
+      <c r="N34" s="4">
+        <f>I7*C48*(1+C66)/C59</f>
+        <v>8.9161852006742546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="e">
+        <f>400*EXP(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C35" t="e">
+        <f>EXP(B35)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="22">
+        <v>8.9148195803466894</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="14"/>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35" s="4">
+        <f>C70</f>
+        <v>4.7855941476672333E-2</v>
+      </c>
+      <c r="N35" s="4">
+        <f>I12+I13*(C75-1)</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36">
+        <f>EXP(B36)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="2">
+        <v>33.770526501639502</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="14"/>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36" s="4">
+        <f>C15+(1+C66)*C7/C59+C77*C47+C76*C45+C64*C43+(I12*(C75-1)+I13/2*(C75-1)^2)*C43</f>
+        <v>8.0089971827283506</v>
+      </c>
+      <c r="N36" s="4">
+        <f>C80/C78+C7+C64*(1-I11)*C43</f>
+        <v>8.0089976288858011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" t="e">
+        <f>EXP(B37)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="2">
+        <v>107.352040072465</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37" s="24">
+        <f>C80</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="N37" s="24">
+        <f>C3*(C75*C43)^I6*(C47^I43*C45^(1-I43))^(1-I6)</f>
+        <v>2.3553369410735461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>-3.7936899999999998</v>
+      </c>
+      <c r="C38">
+        <f>EXP(B38)</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38">
+        <v>0.35</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38" s="24">
+        <f>(1+C66)*C7</f>
+        <v>1.387693470358798</v>
+      </c>
+      <c r="N38" s="24">
+        <f>C53*C64*C59*C43*(1-I11)</f>
+        <v>1.9427608258293587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>-3.7936899999999998</v>
+      </c>
+      <c r="C39">
+        <f>EXP(B39)</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>0.7</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39" s="24">
+        <f>C70</f>
+        <v>4.7855941476672333E-2</v>
+      </c>
+      <c r="N39" s="24">
+        <f>I6*C75^(I6-1)*C43^(I6-1)*(C47^I43*C45^(1-I43))^(1-I6)/C78</f>
+        <v>0.18962151710576272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>-1.52345</v>
+      </c>
+      <c r="C40">
+        <f>EXP(B40)</f>
+        <v>0.2179586310557865</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40">
+        <f>I35/(I35-1)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40" s="4">
+        <f>C65</f>
+        <v>1.0027439437292352E-2</v>
+      </c>
+      <c r="N40" s="4">
+        <f>-I35*(C42/C5-I65)*(C42/C5)^2+C69</f>
+        <v>1.0164845927947997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>1.73925</v>
+      </c>
+      <c r="C41">
+        <f>EXP(B41)</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <f>I34/(I34-1)</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41" s="24">
+        <f>C42*C59</f>
+        <v>0.20745517225004623</v>
+      </c>
+      <c r="N41" s="24">
+        <f>(1-I10)*C42/C26+C38</f>
+        <v>0.24430618649360389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>-1.57284</v>
+      </c>
+      <c r="C42">
+        <f>EXP(B42)</f>
+        <v>0.20745517225004384</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <f>I35/(I35-1)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42" s="24">
+        <f>I20*C20</f>
+        <v>2.5620225367973446</v>
+      </c>
+      <c r="N42" s="24">
+        <f>I23*C21</f>
+        <v>2.3182138571456488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>1.73925</v>
+      </c>
+      <c r="C43">
+        <f>EXP(B43)</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43" s="4">
+        <f>I20*C8</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="N43" s="4">
+        <f>I22*C9</f>
+        <v>1.1790263844816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>-5.8133200000000003E-2</v>
+      </c>
+      <c r="C44">
+        <f>EXP(B44)</f>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="19"/>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44" s="4">
+        <f>I20*C6</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="N44" s="4">
+        <f>I21*C7</f>
+        <v>1.3684613411072202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>-5.8133200000000003E-2</v>
+      </c>
+      <c r="C45">
+        <f>EXP(B45)</f>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="22">
+        <v>2.0038478018082402</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="19"/>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45" s="24">
+        <f>C8+C6</f>
+        <v>2.5474877255888204</v>
+      </c>
+      <c r="N45" s="24">
+        <f>C20+C42</f>
+        <v>2.7694777090473885</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>-0.26297700000000002</v>
+      </c>
+      <c r="C46">
+        <f>EXP(B46)</f>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.303247771697294</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46" s="24">
+        <f>-1+C57/(C57-1)-C57/(C57-1)*C69/C68-I33*(C68/C68-C68/C68^I27)*C68/C68+I9*C50/C50*I33*(C68/C68-C68/C68^I27)*C68/C68^2*C20/C20</f>
+        <v>468.74743378310853</v>
+      </c>
+      <c r="N46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>-0.26297700000000002</v>
+      </c>
+      <c r="C47">
+        <f>EXP(B47)</f>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47" s="24">
+        <f>1-C55/(C55-1)+C55/(C55-1)*C65/C66-I31*(C66/C66-C66/C66^I25)*C66/C66+I9*C50/C50*I31*(C66/C66-C66/C66^I25)*(C66/C66)^2*C6/C6</f>
+        <v>-1.5989248143260824</v>
+      </c>
+      <c r="N47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>2.19923</v>
+      </c>
+      <c r="C48">
+        <f>EXP(B48)</f>
+        <v>9.0180669138182381</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48">
+        <f>I50*I15/(I15-1)</f>
+        <v>1.4655630697386977E-2</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48" s="24">
+        <f>1-C56/(C56-1)+C56/(C56-1)*C65/C67-I32*(C67/C67-C67/C67^I25)*C67/C67+I9*C50/C50*I32*(C67/C67-C67/C67^I25)*(C67/C67)^2*C8/C8</f>
+        <v>-1.9245618334306425</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>1.91801</v>
+      </c>
+      <c r="C49">
+        <f>EXP(B49)</f>
+        <v>6.8073982588212605</v>
+      </c>
+      <c r="H49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49">
+        <f>I50*I16/(I16-1)</f>
+        <v>1.4655630697386977E-2</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49" s="24">
+        <f>C38</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="N49" s="24">
+        <f>C67*C8+C66*C6-C68*C20-I33/2*((C68/C68-1)^2*C68*C20)-I31/2*((C66/C66-1)^2*C66*C6)-I32/2*((C67/C67-1)^2*C67*C8)-I35/2*((C42/C6-I65)^2*C42)</f>
+        <v>1.7606103194363076E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0.122029</v>
+      </c>
+      <c r="C50">
+        <f>EXP(B50)</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50">
+        <f>(I47/I9-1)*(I17-1)/I17</f>
+        <v>9.6584946108585878E-3</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50" s="24">
+        <f>C40</f>
+        <v>0.2179586310557865</v>
+      </c>
+      <c r="N50" s="24">
+        <f>C82*(1-1/C78-I36/2*(C59-C59^I28*I47^(1-I28))^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="e">
+        <f>B18*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C51" t="e">
+        <f>EXP(B51)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51">
+        <f>-(1-I11)-I38*(1-I11)*I47/I7*(1/(1+I48)-I7/I47)+1/I7</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="17"/>
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51" s="4" t="e">
+        <f>1-C28+C28/C78-I36*(C59-C59^I28*I47^(1-I28))*C59+I9*C50/C50*I36*(C59-C59^I28*I47^(1-I28))*C59*C82/C82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52">
+        <f>B21*100</f>
+        <v>84.079700000000003</v>
+      </c>
+      <c r="C52">
+        <f>EXP(B52)</f>
+        <v>3.2760441811662184E+36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.93816527333293998</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52" s="4">
+        <f>C14</f>
+        <v>1.1429092667605822</v>
+      </c>
+      <c r="N52" s="4">
+        <f>I23*C17+I22*C16+I21*C15</f>
+        <v>1.1429102096892025</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <f>LN(I38)</f>
+        <v>-1.0498221244986778</v>
+      </c>
+      <c r="C53">
+        <f>EXP(B53)</f>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="H53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.92187271910220603</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="19"/>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53" s="4">
+        <f>C12</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="N53" s="4">
+        <f>I20*C8</f>
+        <v>1.1790263844816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <f>LN(I39)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="C54">
+        <f>EXP(B54)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.57169238371417097</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="19"/>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54" s="4">
+        <f>C11</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="N54" s="4">
+        <f>I20*C6</f>
+        <v>1.3684613411072202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <f>LN(I40)</f>
+        <v>0.11897811492439229</v>
+      </c>
+      <c r="C55">
+        <f>EXP(B55)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="H55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.38595343816817801</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="19"/>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55" s="4">
+        <f>C5</f>
+        <v>2.5474860241610293</v>
+      </c>
+      <c r="N55" s="4">
+        <f>C11+C12</f>
+        <v>2.5474877255888204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <f>LN(I41)</f>
+        <v>0.1050220935852305</v>
+      </c>
+      <c r="C56">
+        <f>EXP(B56)</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.813022758608552</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="19"/>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56" s="4">
+        <f>C19</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="N56" s="4">
+        <f>I23*C21</f>
+        <v>2.3182138571456488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <f>LN(I42)</f>
+        <v>0.11897811492439229</v>
+      </c>
+      <c r="C57">
+        <f>EXP(B57)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.59618644088413197</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="19"/>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57" s="4">
+        <f>C79</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="N57" s="4">
+        <f>I21*C80</f>
+        <v>1.307749864950517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58">
+        <f>B46*100</f>
+        <v>-26.297700000000003</v>
+      </c>
+      <c r="C58">
+        <f>EXP(B58)</f>
+        <v>3.7936215461900084E-12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.29418223956738399</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="19"/>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58" s="4">
+        <f>C39</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="N58" s="4">
+        <f>I20*C38</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.1600000000000001E-14</v>
+      </c>
+      <c r="C59">
+        <f>EXP(B59)</f>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.75048187308431102</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="19"/>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59" s="4">
+        <f>I21*C47</f>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="N59" s="4">
+        <f>I23*C46</f>
+        <v>0.76875957857813226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <f>EXP(B60)</f>
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.90129485520181996</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="19"/>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60" s="4">
+        <f>I21*C45</f>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="N60" s="4">
+        <f>I22*C44</f>
+        <v>0.94352426163466019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <f>EXP(B61)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.92237838275307804</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="19"/>
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61" s="4">
+        <f>I24</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <f>I23*C30+I22*C29</f>
+        <v>0.99999992837688967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <f>EXP(B62)</f>
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.87390121347579897</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="19"/>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62" s="4">
+        <f>C41</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="N62" s="4">
+        <f>I21*C43</f>
+        <v>5.6930720170823053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>3.48936</v>
+      </c>
+      <c r="C63">
+        <f>EXP(B63)</f>
+        <v>32.76497141282978</v>
+      </c>
+      <c r="H63" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.85122967386455495</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="19"/>
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63" s="24">
+        <f>C81</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="N63" s="24">
+        <f>C14+1*(C41-(1-I11)*C41)</f>
+        <v>1.2852360671876399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <f>EXP(B64)</f>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.89273135289954697</v>
+      </c>
+      <c r="K64" s="19"/>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64" s="4">
+        <f>C62</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <f>(C77+C76)/(C76+C77)*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>-4.60243</v>
+      </c>
+      <c r="C65">
+        <f>EXP(B65)</f>
+        <v>1.0027439437292352E-2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>0.09</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65" s="4">
+        <f>(1+C69)</f>
+        <v>1.0096584946108587</v>
+      </c>
+      <c r="N65" s="4">
+        <f>(1+I50)^(1-I59)*(1+C69)^I59*((C59/I47)^I45*(C81/C81)^I46)^(1-I59)*(1+I66)</f>
+        <v>1.0096584946108644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>-4.2648599999999997</v>
+      </c>
+      <c r="C66">
+        <f>EXP(B66)</f>
+        <v>1.4053834532159389E-2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66" s="4">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="4">
+        <f>1-I55*1+I55*C25+I67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>-4.2648599999999997</v>
+      </c>
+      <c r="C67">
+        <f>EXP(B67)</f>
+        <v>1.4053834532159389E-2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67" s="4">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="N67" s="4">
+        <f>1-I52*1+I52*C3+I68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>-5.1615700000000002</v>
+      </c>
+      <c r="C68">
+        <f>EXP(B68)</f>
+        <v>5.7326922898036613E-3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68" s="4">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="4">
+        <f>1-I53*1+I53*C23+I69</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f>LN(I50)</f>
+        <v>-4.639917480286857</v>
+      </c>
+      <c r="C69">
+        <f>EXP(B69)</f>
+        <v>9.658494610858586E-3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69" s="4">
+        <f>C54</f>
+        <v>0.7</v>
+      </c>
+      <c r="N69" s="4">
+        <f>(1-I61)*I39+I61*C54+I70</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70">
+        <v>-3.0395599999999998</v>
+      </c>
+      <c r="C70">
+        <f>EXP(B70)</f>
+        <v>4.7855941476672333E-2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70" s="4">
+        <f>C53</f>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="N70" s="4">
+        <f>(1-I60)*I38+I60*C53+I71</f>
+        <v>0.34999999999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <f>C72</f>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="C71">
+        <f>EXP(B71)</f>
+        <v>1.1056911485255654</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="14"/>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71" s="4">
+        <f>C57</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="N71" s="4">
+        <f>(1-I64)*I42+I64*C57+I72</f>
+        <v>1.1263452678672681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>-2.2978900000000002</v>
+      </c>
+      <c r="C72">
+        <f>EXP(B72)</f>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="H72" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14"/>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72" s="4">
+        <f>C55</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="N72" s="4">
+        <f>(1-I62)*I40+I62*C55+I73</f>
+        <v>1.1263452678672681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>-2.5791200000000001</v>
+      </c>
+      <c r="C73">
+        <f>EXP(B73)</f>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73" s="4">
+        <f>C56</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="N73" s="4">
+        <f>(1-I63)*I41+I63*C56+I74</f>
+        <v>1.1107351502063272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>-4.9964500000000003</v>
+      </c>
+      <c r="C74">
+        <f>EXP(B74)</f>
+        <v>6.7619092187067289E-3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="14"/>
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74" s="4">
+        <f>C24</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <f>1-I54*1+I54*C24+I75</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <f>EXP(B75)</f>
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75" s="24">
+        <f>C28</f>
+        <v>6</v>
+      </c>
+      <c r="N75" s="24">
+        <f>(1-I58)*I39+I58*C28+I76</f>
+        <v>2.2591658697071351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>-1.7529999999999999</v>
+      </c>
+      <c r="C76">
+        <f>EXP(B76)</f>
+        <v>0.17325340282144272</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="14"/>
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76" s="24">
+        <f>C27</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="N76" s="24">
+        <f>(1-I57)*I39+I57*C27+I77</f>
+        <v>3.2636016958017668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>-0.16186300000000001</v>
+      </c>
+      <c r="C77">
+        <f>EXP(B77)</f>
+        <v>0.85055772296658494</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="15"/>
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77" s="4">
+        <f>C26</f>
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <f>1-I56*1+I56*C26+I78</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78">
+        <v>0.18232200000000001</v>
+      </c>
+      <c r="C78">
+        <f>EXP(B78)</f>
+        <v>1.2000005318473723</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78" s="4">
+        <f>B71</f>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="N78" s="4">
+        <f>C48-I7*C48*(1+C66)/C59</f>
+        <v>0.10188171314398353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79">
+        <v>0.26830799999999999</v>
+      </c>
+      <c r="C79">
+        <f>EXP(B79)</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="K79" s="14"/>
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79" s="4">
+        <f>B4</f>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="N79" s="4">
+        <f>C42/C5</f>
+        <v>8.1435254318368885E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>0.26830799999999999</v>
+      </c>
+      <c r="C80">
+        <f>EXP(B80)</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="K80" s="14"/>
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80" s="4">
+        <f>C13</f>
+        <v>7.5720609217937588E-3</v>
+      </c>
+      <c r="N80" s="4">
+        <f>C8/(C8+C6)*C67+C6/(C8+C6)*C66-C68</f>
+        <v>8.3211422423557259E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81">
+        <f>B79</f>
+        <v>0.26830799999999999</v>
+      </c>
+      <c r="C81">
+        <f>EXP(B81)</f>
+        <v>1.307749864950517</v>
+      </c>
+      <c r="K81" s="15"/>
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81" s="4">
+        <f>C74</f>
+        <v>6.7619092187067289E-3</v>
+      </c>
+      <c r="N81" s="4">
+        <f>0.5*C67+0.5*C66-C68</f>
+        <v>8.3211422423557276E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E2:F15">
+    <sortCondition ref="E15"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="K52:K64"/>
+    <mergeCell ref="K66:K77"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K39"/>
+    <mergeCell ref="K40:K49"/>
+    <mergeCell ref="K50:K51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/recalculare init value.xlsx
+++ b/recalculare init value.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihai Aliman\Desktop\doctorat\model politica macroprudentiala\replicari\gerali 2010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="initial" sheetId="3" r:id="rId3"/>
+    <sheet name="alpha" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="186">
   <si>
     <t>R_b</t>
   </si>
@@ -690,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,14 +704,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -721,32 +725,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1039,9 +1052,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>-C3*(EXP(D3)/EXP(E3)-F3)*(EXP(D3)/EXP(E3))^2+EXP(H3)</f>
         <v>1.011871582850187</v>
@@ -1111,29 +1124,29 @@
         <v>-1.46025</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>LN(B3-1)</f>
         <v>-4.4336077304565364</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-4.63992</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>EXP(B6)+1</f>
         <v>1.0096584702742535</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-1.46025</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>0.77084375534816407</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2.9328059999999998</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>0.95249882889210125</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2.9328059999999998</v>
       </c>
@@ -1226,6 +1239,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Times New Roman"&amp;12&amp;K000000BNR - Uz intern&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1237,24 +1253,24 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="6"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="6"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1283,7 +1299,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1497,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1878,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1983,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2170,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2215,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2260,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2533,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2575,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2671,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2703,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2742,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2801,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2854,7 +2870,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>48</v>
       </c>
@@ -2971,7 +2987,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2989,7 +3005,7 @@
         <v>0.39352753242570498</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3004,7 +3020,7 @@
         <v>0.93900015678945403</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>0.92117909414787202</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3034,7 +3050,7 @@
         <v>0.89386514435074604</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>0.92864864780617695</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3064,7 +3080,7 @@
         <v>0.83804796415016702</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3079,7 +3095,7 @@
         <v>0.81946217303357605</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +3109,7 @@
         <v>0.83428100562221197</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3107,7 +3123,7 @@
         <v>0.54749146204441301</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3122,7 +3138,7 @@
         <v>0.30473409634573601</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>0.63992225476484699</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3155,7 +3171,7 @@
         <v>0.81297958524412695</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3166,7 +3182,7 @@
         <v>28.650196538695202</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3188,7 +3204,7 @@
         <v>99.898283585301797</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3202,7 +3218,7 @@
         <v>10.1821556708393</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3213,7 +3229,7 @@
         <v>3.5029734165847399</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3224,7 +3240,7 @@
         <v>9.3638233191517308</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3246,7 +3262,7 @@
         <v>10.086654447226399</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3268,7 +3284,7 @@
         <v>11.0683355407919</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3290,7 +3306,7 @@
         <v>1.98160265619103</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3301,7 +3317,7 @@
         <v>0.76855514559469496</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3323,7 +3339,7 @@
         <v>0.34591496570351998</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>0.16051347848216099</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3367,7 +3383,7 @@
         <v>0.275696240583164</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3389,7 +3405,7 @@
         <v>0.85595219718425597</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3400,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3415,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>0.10047061322131151</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3444,7 +3460,7 @@
         <v>-1.6848142441362781</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3463,7 +3479,7 @@
         <v>-0.65902961191432363</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -3482,7 +3498,7 @@
         <v>-0.65902961191432363</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -3497,7 +3513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3519,7 +3535,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -3532,7 +3548,7 @@
         <v>5.8622522789547906</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>5.8622522789547906</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -3558,7 +3574,7 @@
         <v>1.1600000000000001E-12</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -3571,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -3584,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3597,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3610,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -3623,7 +3639,7 @@
         <v>-368.88794541139362</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -3636,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -3649,7 +3665,7 @@
         <v>2.2930705018652917</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -3664,12 +3680,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T3:U36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Times New Roman"&amp;12&amp;K000000BNR - Uz intern&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3677,18 +3696,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N75" sqref="M75:N76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3714,12 +3737,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="C3">
-        <f>EXP(B3)</f>
+        <f t="shared" ref="C3:C34" si="0">EXP(B3)</f>
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -3747,7 +3770,7 @@
         <v>3.8633978443434343</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3756,7 +3779,7 @@
         <v>7.5840714494688141E-2</v>
       </c>
       <c r="C4">
-        <f>EXP(B4)</f>
+        <f t="shared" si="0"/>
         <v>1.0787907247453703</v>
       </c>
       <c r="E4" t="s">
@@ -3785,7 +3808,7 @@
         <v>5.6215338128637553</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>0.93510700000000002</v>
       </c>
       <c r="C5">
-        <f>EXP(B5)</f>
+        <f t="shared" si="0"/>
         <v>2.5474860241610293</v>
       </c>
       <c r="E5" t="s">
@@ -3821,7 +3844,7 @@
         <v>5.6215338128637553</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>0.31368699999999999</v>
       </c>
       <c r="C6">
-        <f>EXP(B6)</f>
+        <f t="shared" si="0"/>
         <v>1.3684613411072202</v>
       </c>
       <c r="E6" t="s">
@@ -3843,12 +3866,12 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6" s="23" t="e">
+      <c r="M6" s="12" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
@@ -3857,7 +3880,7 @@
         <v>1.1600000000000001E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>0.31368699999999999</v>
       </c>
       <c r="C7">
-        <f>EXP(B7)</f>
+        <f t="shared" si="0"/>
         <v>1.3684613411072202</v>
       </c>
       <c r="E7" t="s">
@@ -3894,7 +3917,7 @@
         <v>16.468900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3902,7 +3925,7 @@
         <v>0.164689</v>
       </c>
       <c r="C8">
-        <f>EXP(B8)</f>
+        <f t="shared" si="0"/>
         <v>1.1790263844816</v>
       </c>
       <c r="E8" t="s">
@@ -3930,7 +3953,7 @@
         <v>31.3687</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3938,7 +3961,7 @@
         <v>0.164689</v>
       </c>
       <c r="C9">
-        <f>EXP(B9)</f>
+        <f t="shared" si="0"/>
         <v>1.1790263844816</v>
       </c>
       <c r="E9" t="s">
@@ -3966,7 +3989,7 @@
         <v>26.8308</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -3975,7 +3998,7 @@
         <v>#REF!</v>
       </c>
       <c r="C10" t="e">
-        <f>EXP(B10)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="E10" t="s">
@@ -4004,7 +4027,7 @@
         <v>13.357699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4035,7 @@
         <v>0.31368699999999999</v>
       </c>
       <c r="C11">
-        <f>EXP(B11)</f>
+        <f t="shared" si="0"/>
         <v>1.3684613411072202</v>
       </c>
       <c r="E11" t="s">
@@ -4040,7 +4063,7 @@
         <v>-194.96199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -4048,7 +4071,7 @@
         <v>0.164689</v>
       </c>
       <c r="C12">
-        <f>EXP(B12)</f>
+        <f t="shared" si="0"/>
         <v>1.1790263844816</v>
       </c>
       <c r="E12" t="s">
@@ -4077,7 +4100,7 @@
         <v>84.079700000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -4085,7 +4108,7 @@
         <v>-4.8832899999999997</v>
       </c>
       <c r="C13">
-        <f>EXP(B13)</f>
+        <f t="shared" si="0"/>
         <v>7.5720609217937588E-3</v>
       </c>
       <c r="E13" t="s">
@@ -4114,7 +4137,7 @@
         <v>2.2930769159214646</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>0.133577</v>
       </c>
       <c r="C14">
-        <f>EXP(B14)</f>
+        <f t="shared" si="0"/>
         <v>1.1429092667605822</v>
       </c>
       <c r="E14" t="s">
@@ -4151,7 +4174,7 @@
         <v>-157.28399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4159,7 +4182,7 @@
         <v>-2.19923</v>
       </c>
       <c r="C15">
-        <f>EXP(B15)</f>
+        <f t="shared" si="0"/>
         <v>0.11088850965030168</v>
       </c>
       <c r="E15" t="s">
@@ -4176,7 +4199,7 @@
         <f>I16</f>
         <v>2.9328059999999998</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="19" t="s">
         <v>174</v>
       </c>
       <c r="L15">
@@ -4191,7 +4214,7 @@
         <v>1.1297868651243366</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4199,7 +4222,7 @@
         <v>-1.91801</v>
       </c>
       <c r="C16">
-        <f>EXP(B16)</f>
+        <f t="shared" si="0"/>
         <v>0.14689900046675919</v>
       </c>
       <c r="H16" t="s">
@@ -4208,7 +4231,7 @@
       <c r="I16">
         <v>2.9328059999999998</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="20"/>
       <c r="L16">
         <v>14</v>
       </c>
@@ -4220,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4228,7 +4251,7 @@
         <v>-0.122029</v>
       </c>
       <c r="C17">
-        <f>EXP(B17)</f>
+        <f t="shared" si="0"/>
         <v>0.88512269957214185</v>
       </c>
       <c r="H17" t="s">
@@ -4237,7 +4260,7 @@
       <c r="I17">
         <v>-1.46025</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="20"/>
       <c r="L17">
         <v>15</v>
       </c>
@@ -4250,7 +4273,7 @@
         <v>1.1297868831373645</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -4259,7 +4282,7 @@
         <v>#REF!</v>
       </c>
       <c r="C18" t="e">
-        <f>EXP(B18)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H18" t="s">
@@ -4268,7 +4291,7 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="20"/>
       <c r="L18">
         <v>16</v>
       </c>
@@ -4280,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4288,7 +4311,7 @@
         <v>0.84079700000000002</v>
       </c>
       <c r="C19">
-        <f>EXP(B19)</f>
+        <f t="shared" si="0"/>
         <v>2.3182138571456488</v>
       </c>
       <c r="H19" t="s">
@@ -4297,7 +4320,7 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="20"/>
       <c r="L19">
         <v>17</v>
       </c>
@@ -4310,7 +4333,7 @@
         <v>1.0000000000000115</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4318,7 +4341,7 @@
         <v>0.94079699999999999</v>
       </c>
       <c r="C20">
-        <f>EXP(B20)</f>
+        <f t="shared" si="0"/>
         <v>2.5620225367973446</v>
       </c>
       <c r="H20" t="s">
@@ -4327,7 +4350,7 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="21"/>
       <c r="L20">
         <v>18</v>
       </c>
@@ -4340,7 +4363,7 @@
         <v>3.2033364915705507</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4371,7 @@
         <v>0.84079700000000002</v>
       </c>
       <c r="C21">
-        <f>EXP(B21)</f>
+        <f t="shared" si="0"/>
         <v>2.3182138571456488</v>
       </c>
       <c r="H21" t="s">
@@ -4357,7 +4380,7 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="16" t="s">
         <v>175</v>
       </c>
       <c r="L21">
@@ -4372,7 +4395,7 @@
         <v>6.8073982588212605</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -4381,7 +4404,7 @@
         <v>#REF!</v>
       </c>
       <c r="C22" t="e">
-        <f>EXP(B22)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H22" t="s">
@@ -4390,7 +4413,7 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="17"/>
       <c r="L22">
         <v>20</v>
       </c>
@@ -4402,12 +4425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="C23">
-        <f>EXP(B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" t="s">
@@ -4416,7 +4439,7 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="17"/>
       <c r="L23">
         <v>21</v>
       </c>
@@ -4429,12 +4452,12 @@
         <v>7.6906567346997232E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
       <c r="C24">
-        <f>EXP(B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" t="s">
@@ -4443,7 +4466,7 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="17"/>
       <c r="L24">
         <v>22</v>
       </c>
@@ -4455,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4463,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>EXP(B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" t="s">
@@ -4472,7 +4495,7 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="17"/>
       <c r="L25">
         <v>23</v>
       </c>
@@ -4485,12 +4508,12 @@
         <v>1.0000000000000115</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="C26">
-        <f>EXP(B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" t="s">
@@ -4499,7 +4522,7 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="17"/>
       <c r="L26">
         <v>24</v>
       </c>
@@ -4512,7 +4535,7 @@
         <v>1.3424951734543942</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -4521,7 +4544,7 @@
         <v>1.6094379124341003</v>
       </c>
       <c r="C27">
-        <f>EXP(B27)</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999999991</v>
       </c>
       <c r="H27" t="s">
@@ -4531,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="18"/>
       <c r="L27">
         <v>25</v>
       </c>
@@ -4544,7 +4567,7 @@
         <v>1.1955962991856997</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -4553,7 +4576,7 @@
         <v>1.791759469228055</v>
       </c>
       <c r="C28">
-        <f>EXP(B28)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H28" t="s">
@@ -4563,22 +4586,22 @@
         <v>0.158112794106546</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="16" t="s">
         <v>176</v>
       </c>
       <c r="L28">
         <v>26</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="25">
         <f>C41</f>
         <v>5.6930720170823053</v>
       </c>
-      <c r="N28" s="24">
-        <f>(1-I11)*C41+(1-I34/2*(C31*C24/C31-1)^2)</f>
-        <v>6.5507452166552476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="25">
+        <f>(1-I11)*C41+(1-I34/2*(C31*C24/C31-1)^2)*C31</f>
+        <v>5.693073362662453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4586,16 +4609,16 @@
         <v>-2.95404</v>
       </c>
       <c r="C29">
-        <f>EXP(B29)</f>
+        <f t="shared" si="0"/>
         <v>5.2128680095646571E-2</v>
       </c>
       <c r="H29" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="11">
         <v>0.30019780401748902</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="18"/>
       <c r="L29">
         <v>27</v>
       </c>
@@ -4607,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4615,7 +4638,7 @@
         <v>-5.3536599999999997E-2</v>
       </c>
       <c r="C30">
-        <f>EXP(B30)</f>
+        <f t="shared" si="0"/>
         <v>0.94787124828124314</v>
       </c>
       <c r="H30" t="s">
@@ -4625,7 +4648,7 @@
         <v>0.2</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="16" t="s">
         <v>177</v>
       </c>
       <c r="L30">
@@ -4640,7 +4663,7 @@
         <v>9.0180669138182381</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4648,7 +4671,7 @@
         <v>-1.9496199999999999</v>
       </c>
       <c r="C31">
-        <f>EXP(B31)</f>
+        <f t="shared" si="0"/>
         <v>0.1423281460072057</v>
       </c>
       <c r="H31" t="s">
@@ -4658,20 +4681,20 @@
         <v>7.9800595904463698</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="17"/>
       <c r="L31">
         <v>29</v>
       </c>
-      <c r="M31" s="24">
-        <f>C72*C53*C64*C59*(1-I11)+I7*C48*C64*(1-I11)*C70*C75-(I12*C75-1)+I13/2*(C75-1)^2</f>
-        <v>1.3975985985617867</v>
-      </c>
-      <c r="N31" s="24">
+      <c r="M31" s="25">
+        <f>C72*C53*C64*C59*(1-I11)+I7*C48*(C64*(1-I11)+C70*C75)-(I12*(C75-1)+I13/2*(C75-1)^2)</f>
+        <v>9.0278643371091256</v>
+      </c>
+      <c r="N31" s="25">
         <f>C48*C64</f>
         <v>9.0180669138182381</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -4680,7 +4703,7 @@
         <v>#REF!</v>
       </c>
       <c r="C32" t="e">
-        <f>EXP(B32)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H32" t="s">
@@ -4690,20 +4713,20 @@
         <v>9.0442671874948193</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="17"/>
       <c r="L32">
         <v>30</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="25">
         <f>C77</f>
         <v>0.85055772296658494</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="25">
         <f>I43*(1-I6)*C80/(C78*C47)</f>
-        <v>0.51033482578523237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.85055804297538751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -4712,7 +4735,7 @@
         <v>#REF!</v>
       </c>
       <c r="C33" t="e">
-        <f>EXP(B33)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H33" t="s">
@@ -4722,20 +4745,20 @@
         <v>2.7753737710421298</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="17"/>
       <c r="L33">
         <v>31</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="25">
         <f>C76</f>
         <v>0.17325340282144272</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="25">
         <f>(1-I43)*(1-I6)*C80/(C78*C45)</f>
-        <v>0.10395196010240774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.17325326683734624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -4744,7 +4767,7 @@
         <v>#REF!</v>
       </c>
       <c r="C34" t="e">
-        <f>EXP(B34)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H34" t="s">
@@ -4754,7 +4777,7 @@
         <v>10.030556224800799</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="17"/>
       <c r="L34">
         <v>32</v>
       </c>
@@ -4767,7 +4790,7 @@
         <v>8.9161852006742546</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4776,17 +4799,17 @@
         <v>#REF!</v>
       </c>
       <c r="C35" t="e">
-        <f>EXP(B35)</f>
+        <f t="shared" ref="C35:C66" si="1">EXP(B35)</f>
         <v>#REF!</v>
       </c>
       <c r="H35" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="11">
         <v>8.9148195803466894</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="17"/>
       <c r="L35">
         <v>33</v>
       </c>
@@ -4799,12 +4822,12 @@
         <v>4.6946406588904588E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
       <c r="C36">
-        <f>EXP(B36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" t="s">
@@ -4814,7 +4837,7 @@
         <v>33.770526501639502</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="17"/>
       <c r="L36">
         <v>34</v>
       </c>
@@ -4827,7 +4850,7 @@
         <v>8.0089976288858011</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>159</v>
       </c>
@@ -4836,7 +4859,7 @@
         <v>#REF!</v>
       </c>
       <c r="C37" t="e">
-        <f>EXP(B37)</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H37" t="s">
@@ -4845,20 +4868,20 @@
       <c r="I37" s="2">
         <v>107.352040072465</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="17"/>
       <c r="L37">
         <v>35</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="25">
         <f>C80</f>
         <v>1.307749864950517</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="25">
         <f>C3*(C75*C43)^I6*(C47^I43*C45^(1-I43))^(1-I6)</f>
-        <v>2.3553369410735461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.3077476679325895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -4866,7 +4889,7 @@
         <v>-3.7936899999999998</v>
       </c>
       <c r="C38">
-        <f>EXP(B38)</f>
+        <f t="shared" si="1"/>
         <v>2.2512377723239489E-2</v>
       </c>
       <c r="H38" t="s">
@@ -4875,20 +4898,20 @@
       <c r="I38">
         <v>0.35</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="17"/>
       <c r="L38">
         <v>36</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="25">
         <f>(1+C66)*C7</f>
         <v>1.387693470358798</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="25">
         <f>C53*C64*C59*C43*(1-I11)</f>
         <v>1.9427608258293587</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4896,7 +4919,7 @@
         <v>-3.7936899999999998</v>
       </c>
       <c r="C39">
-        <f>EXP(B39)</f>
+        <f t="shared" si="1"/>
         <v>2.2512377723239489E-2</v>
       </c>
       <c r="H39" t="s">
@@ -4905,20 +4928,20 @@
       <c r="I39">
         <v>0.7</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="18"/>
       <c r="L39">
         <v>37</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="25">
         <f>C70</f>
         <v>4.7855941476672333E-2</v>
       </c>
-      <c r="N39" s="24">
-        <f>I6*C75^(I6-1)*C43^(I6-1)*(C47^I43*C45^(1-I43))^(1-I6)/C78</f>
-        <v>0.18962151710576272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="25">
+        <f>I6*C3*C75^(I6-1)*C43^(I6-1)*(C47^I43*C45^(1-I43))^(1-I6)/C78</f>
+        <v>4.7855939508841282E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -4926,7 +4949,7 @@
         <v>-1.52345</v>
       </c>
       <c r="C40">
-        <f>EXP(B40)</f>
+        <f t="shared" si="1"/>
         <v>0.2179586310557865</v>
       </c>
       <c r="H40" t="s">
@@ -4936,7 +4959,7 @@
         <f>I35/(I35-1)</f>
         <v>1.1263452678672681</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="14" t="s">
         <v>179</v>
       </c>
       <c r="L40">
@@ -4951,7 +4974,7 @@
         <v>1.0164845927947997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -4959,7 +4982,7 @@
         <v>1.73925</v>
       </c>
       <c r="C41">
-        <f>EXP(B41)</f>
+        <f t="shared" si="1"/>
         <v>5.6930720170823053</v>
       </c>
       <c r="H41" t="s">
@@ -4969,20 +4992,20 @@
         <f>I34/(I34-1)</f>
         <v>1.1107351502063272</v>
       </c>
-      <c r="K41" s="19"/>
+      <c r="K41" s="15"/>
       <c r="L41">
         <v>39</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="25">
         <f>C42*C59</f>
         <v>0.20745517225004623</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="25">
         <f>(1-I10)*C42/C26+C38</f>
         <v>0.24430618649360389</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -4990,7 +5013,7 @@
         <v>-1.57284</v>
       </c>
       <c r="C42">
-        <f>EXP(B42)</f>
+        <f t="shared" si="1"/>
         <v>0.20745517225004384</v>
       </c>
       <c r="H42" t="s">
@@ -5000,20 +5023,20 @@
         <f>I35/(I35-1)</f>
         <v>1.1263452678672681</v>
       </c>
-      <c r="K42" s="19"/>
+      <c r="K42" s="15"/>
       <c r="L42">
         <v>40</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="25">
         <f>I20*C20</f>
         <v>2.5620225367973446</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="25">
         <f>I23*C21</f>
         <v>2.3182138571456488</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -5021,7 +5044,7 @@
         <v>1.73925</v>
       </c>
       <c r="C43">
-        <f>EXP(B43)</f>
+        <f t="shared" si="1"/>
         <v>5.6930720170823053</v>
       </c>
       <c r="H43" t="s">
@@ -5030,7 +5053,7 @@
       <c r="I43">
         <v>0.8</v>
       </c>
-      <c r="K43" s="19"/>
+      <c r="K43" s="15"/>
       <c r="L43">
         <v>41</v>
       </c>
@@ -5043,7 +5066,7 @@
         <v>1.1790263844816</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -5051,7 +5074,7 @@
         <v>-5.8133200000000003E-2</v>
       </c>
       <c r="C44">
-        <f>EXP(B44)</f>
+        <f t="shared" si="1"/>
         <v>0.94352426163466019</v>
       </c>
       <c r="H44" t="s">
@@ -5061,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="19"/>
+      <c r="K44" s="15"/>
       <c r="L44">
         <v>42</v>
       </c>
@@ -5074,7 +5097,7 @@
         <v>1.3684613411072202</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -5082,30 +5105,30 @@
         <v>-5.8133200000000003E-2</v>
       </c>
       <c r="C45">
-        <f>EXP(B45)</f>
+        <f t="shared" si="1"/>
         <v>0.94352426163466019</v>
       </c>
       <c r="H45" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="11">
         <v>2.0038478018082402</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="19"/>
+      <c r="K45" s="15"/>
       <c r="L45">
         <v>43</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="25">
         <f>C8+C6</f>
         <v>2.5474877255888204</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="25">
         <f>C20+C42</f>
         <v>2.7694777090473885</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5136,7 @@
         <v>-0.26297700000000002</v>
       </c>
       <c r="C46">
-        <f>EXP(B46)</f>
+        <f t="shared" si="1"/>
         <v>0.76875957857813226</v>
       </c>
       <c r="H46" t="s">
@@ -5122,19 +5145,19 @@
       <c r="I46" s="2">
         <v>0.303247771697294</v>
       </c>
-      <c r="K46" s="19"/>
+      <c r="K46" s="15"/>
       <c r="L46">
         <v>44</v>
       </c>
-      <c r="M46" s="24">
-        <f>-1+C57/(C57-1)-C57/(C57-1)*C69/C68-I33*(C68/C68-C68/C68^I27)*C68/C68+I9*C50/C50*I33*(C68/C68-C68/C68^I27)*C68/C68^2*C20/C20</f>
-        <v>468.74743378310853</v>
-      </c>
-      <c r="N46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M46" s="13">
+        <f>-1+C57/(C57-1)-C57/(C57-1)*C69/C68-I33*(C68/C68-(C68/C68)^I27)*C68/C68+I9*(C50/C50)*I33*(C68/C68-(C68/C68)^I27)*((C68/C68)^2)*(C20/C20)</f>
+        <v>-7.104953419976697</v>
+      </c>
+      <c r="N46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -5142,7 +5165,7 @@
         <v>-0.26297700000000002</v>
       </c>
       <c r="C47">
-        <f>EXP(B47)</f>
+        <f t="shared" si="1"/>
         <v>0.76875957857813226</v>
       </c>
       <c r="H47" t="s">
@@ -5151,19 +5174,19 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="K47" s="19"/>
+      <c r="K47" s="15"/>
       <c r="L47">
         <v>45</v>
       </c>
-      <c r="M47" s="24">
-        <f>1-C55/(C55-1)+C55/(C55-1)*C65/C66-I31*(C66/C66-C66/C66^I25)*C66/C66+I9*C50/C50*I31*(C66/C66-C66/C66^I25)*(C66/C66)^2*C6/C6</f>
-        <v>-1.5989248143260824</v>
-      </c>
-      <c r="N47" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M47" s="13">
+        <f>1-C55/(C55-1)+C55/(C55-1)*C65/C66-I31*(C66/C66-(C66/C66)^I25)*C66/C66+I9*(C50/C50)*I31*(C66/C66-(C66/C66)^I25)*((C66/C66)^2)*(C6/C6)</f>
+        <v>-1.5540777321516712</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -5171,7 +5194,7 @@
         <v>2.19923</v>
       </c>
       <c r="C48">
-        <f>EXP(B48)</f>
+        <f t="shared" si="1"/>
         <v>9.0180669138182381</v>
       </c>
       <c r="H48" t="s">
@@ -5181,19 +5204,19 @@
         <f>I50*I15/(I15-1)</f>
         <v>1.4655630697386977E-2</v>
       </c>
-      <c r="K48" s="19"/>
+      <c r="K48" s="15"/>
       <c r="L48">
         <v>46</v>
       </c>
-      <c r="M48" s="24">
-        <f>1-C56/(C56-1)+C56/(C56-1)*C65/C67-I32*(C67/C67-C67/C67^I25)*C67/C67+I9*C50/C50*I32*(C67/C67-C67/C67^I25)*(C67/C67)^2*C8/C8</f>
-        <v>-1.9245618334306425</v>
-      </c>
-      <c r="N48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M48" s="13">
+        <f>1-C56/(C56-1)+C56/(C56-1)*C65/C67-I32*(C67/C67-(C67/C67)^I25)*C67/C67+I9*(C50/C50)*I32*(C67/C67-(C67/C67)^I25)*((C67/C67)^2)*(C8/C8)</f>
+        <v>-1.8737340182786735</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -5201,7 +5224,7 @@
         <v>1.91801</v>
       </c>
       <c r="C49">
-        <f>EXP(B49)</f>
+        <f t="shared" si="1"/>
         <v>6.8073982588212605</v>
       </c>
       <c r="H49" t="s">
@@ -5211,20 +5234,20 @@
         <f>I50*I16/(I16-1)</f>
         <v>1.4655630697386977E-2</v>
       </c>
-      <c r="K49" s="20"/>
+      <c r="K49" s="22"/>
       <c r="L49">
         <v>47</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="13">
         <f>C38</f>
         <v>2.2512377723239489E-2</v>
       </c>
-      <c r="N49" s="24">
+      <c r="N49" s="13">
         <f>C67*C8+C66*C6-C68*C20-I33/2*((C68/C68-1)^2*C68*C20)-I31/2*((C66/C66-1)^2*C66*C6)-I32/2*((C67/C67-1)^2*C67*C8)-I35/2*((C42/C6-I65)^2*C42)</f>
         <v>1.7606103194363076E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -5232,7 +5255,7 @@
         <v>0.122029</v>
       </c>
       <c r="C50">
-        <f>EXP(B50)</f>
+        <f t="shared" si="1"/>
         <v>1.1297868651243366</v>
       </c>
       <c r="H50" t="s">
@@ -5242,22 +5265,22 @@
         <f>(I47/I9-1)*(I17-1)/I17</f>
         <v>9.6584946108585878E-3</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="23" t="s">
         <v>180</v>
       </c>
       <c r="L50">
         <v>48</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="25">
         <f>C40</f>
         <v>0.2179586310557865</v>
       </c>
-      <c r="N50" s="24">
-        <f>C82*(1-1/C78-I36/2*(C59-C59^I28*I47^(1-I28))^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N50" s="25">
+        <f>C79*(1-1/C78-I36/2*(C59-C59^I28*I47^(1-I28))^2)</f>
+        <v>0.21795879382718419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -5266,7 +5289,7 @@
         <v>#REF!</v>
       </c>
       <c r="C51" t="e">
-        <f>EXP(B51)</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H51" t="s">
@@ -5277,19 +5300,19 @@
         <v>4.6946406588904588E-2</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="17"/>
+      <c r="K51" s="24"/>
       <c r="L51">
         <v>49</v>
       </c>
-      <c r="M51" s="4" t="e">
-        <f>1-C28+C28/C78-I36*(C59-C59^I28*I47^(1-I28))*C59+I9*C50/C50*I36*(C59-C59^I28*I47^(1-I28))*C59*C82/C82</f>
-        <v>#DIV/0!</v>
+      <c r="M51" s="4">
+        <f>1-C28+C28/C78-I36*(C59-C59^I28*I47^(1-I28))*C59+I9*C50/C50*I36*(C59-C59^I28*I47^(1-I28))*C59*C79/C79</f>
+        <v>-2.2160297375938605E-6</v>
       </c>
       <c r="N51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -5298,7 +5321,7 @@
         <v>84.079700000000003</v>
       </c>
       <c r="C52">
-        <f>EXP(B52)</f>
+        <f t="shared" si="1"/>
         <v>3.2760441811662184E+36</v>
       </c>
       <c r="H52" t="s">
@@ -5308,7 +5331,7 @@
         <v>0.93816527333293998</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="18" t="s">
+      <c r="K52" s="14" t="s">
         <v>181</v>
       </c>
       <c r="L52">
@@ -5323,7 +5346,7 @@
         <v>1.1429102096892025</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -5332,7 +5355,7 @@
         <v>-1.0498221244986778</v>
       </c>
       <c r="C53">
-        <f>EXP(B53)</f>
+        <f t="shared" si="1"/>
         <v>0.34999999999999992</v>
       </c>
       <c r="H53" t="s">
@@ -5342,7 +5365,7 @@
         <v>0.92187271910220603</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="19"/>
+      <c r="K53" s="15"/>
       <c r="L53">
         <v>51</v>
       </c>
@@ -5355,7 +5378,7 @@
         <v>1.1790263844816</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -5364,7 +5387,7 @@
         <v>-0.35667494393873245</v>
       </c>
       <c r="C54">
-        <f>EXP(B54)</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="H54" t="s">
@@ -5374,7 +5397,7 @@
         <v>0.57169238371417097</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="19"/>
+      <c r="K54" s="15"/>
       <c r="L54">
         <v>52</v>
       </c>
@@ -5387,7 +5410,7 @@
         <v>1.3684613411072202</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5396,7 +5419,7 @@
         <v>0.11897811492439229</v>
       </c>
       <c r="C55">
-        <f>EXP(B55)</f>
+        <f t="shared" si="1"/>
         <v>1.1263452678672681</v>
       </c>
       <c r="H55" t="s">
@@ -5406,7 +5429,7 @@
         <v>0.38595343816817801</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="19"/>
+      <c r="K55" s="15"/>
       <c r="L55">
         <v>53</v>
       </c>
@@ -5419,7 +5442,7 @@
         <v>2.5474877255888204</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5428,7 +5451,7 @@
         <v>0.1050220935852305</v>
       </c>
       <c r="C56">
-        <f>EXP(B56)</f>
+        <f t="shared" si="1"/>
         <v>1.1107351502063272</v>
       </c>
       <c r="H56" t="s">
@@ -5438,7 +5461,7 @@
         <v>0.813022758608552</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="19"/>
+      <c r="K56" s="15"/>
       <c r="L56">
         <v>54</v>
       </c>
@@ -5451,7 +5474,7 @@
         <v>2.3182138571456488</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +5483,7 @@
         <v>0.11897811492439229</v>
       </c>
       <c r="C57">
-        <f>EXP(B57)</f>
+        <f t="shared" si="1"/>
         <v>1.1263452678672681</v>
       </c>
       <c r="H57" t="s">
@@ -5470,7 +5493,7 @@
         <v>0.59618644088413197</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="19"/>
+      <c r="K57" s="15"/>
       <c r="L57">
         <v>55</v>
       </c>
@@ -5483,7 +5506,7 @@
         <v>1.307749864950517</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -5492,7 +5515,7 @@
         <v>-26.297700000000003</v>
       </c>
       <c r="C58">
-        <f>EXP(B58)</f>
+        <f t="shared" si="1"/>
         <v>3.7936215461900084E-12</v>
       </c>
       <c r="H58" t="s">
@@ -5502,7 +5525,7 @@
         <v>0.29418223956738399</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="19"/>
+      <c r="K58" s="15"/>
       <c r="L58">
         <v>56</v>
       </c>
@@ -5515,7 +5538,7 @@
         <v>2.2512377723239489E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>48</v>
       </c>
@@ -5523,7 +5546,7 @@
         <v>1.1600000000000001E-14</v>
       </c>
       <c r="C59">
-        <f>EXP(B59)</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000115</v>
       </c>
       <c r="H59" t="s">
@@ -5533,7 +5556,7 @@
         <v>0.75048187308431102</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="19"/>
+      <c r="K59" s="15"/>
       <c r="L59">
         <v>57</v>
       </c>
@@ -5546,12 +5569,12 @@
         <v>0.76875957857813226</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
       <c r="C60">
-        <f>EXP(B60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" t="s">
@@ -5561,7 +5584,7 @@
         <v>0.90129485520181996</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="19"/>
+      <c r="K60" s="15"/>
       <c r="L60">
         <v>58</v>
       </c>
@@ -5574,12 +5597,12 @@
         <v>0.94352426163466019</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
       <c r="C61">
-        <f>EXP(B61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H61" t="s">
@@ -5589,7 +5612,7 @@
         <v>0.92237838275307804</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="19"/>
+      <c r="K61" s="15"/>
       <c r="L61">
         <v>59</v>
       </c>
@@ -5602,12 +5625,12 @@
         <v>0.99999992837688967</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="C62">
-        <f>EXP(B62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" t="s">
@@ -5617,7 +5640,7 @@
         <v>0.87390121347579897</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="19"/>
+      <c r="K62" s="15"/>
       <c r="L62">
         <v>60</v>
       </c>
@@ -5630,7 +5653,7 @@
         <v>5.6930720170823053</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>3.48936</v>
       </c>
       <c r="C63">
-        <f>EXP(B63)</f>
+        <f t="shared" si="1"/>
         <v>32.76497141282978</v>
       </c>
       <c r="H63" t="s">
@@ -5648,25 +5671,25 @@
         <v>0.85122967386455495</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="19"/>
+      <c r="K63" s="15"/>
       <c r="L63">
         <v>61</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M63" s="25">
         <f>C81</f>
         <v>1.307749864950517</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N63" s="25">
         <f>C14+1*(C41-(1-I11)*C41)</f>
         <v>1.2852360671876399</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
       </c>
       <c r="C64">
-        <f>EXP(B64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" t="s">
@@ -5675,7 +5698,7 @@
       <c r="I64" s="2">
         <v>0.89273135289954697</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="15"/>
       <c r="L64">
         <v>62</v>
       </c>
@@ -5688,7 +5711,7 @@
         <v>1.0000000000000115</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>-4.60243</v>
       </c>
       <c r="C65">
-        <f>EXP(B65)</f>
+        <f t="shared" si="1"/>
         <v>1.0027439437292352E-2</v>
       </c>
       <c r="H65" t="s">
@@ -5705,7 +5728,7 @@
       <c r="I65">
         <v>0.09</v>
       </c>
-      <c r="K65" s="21" t="s">
+      <c r="K65" s="10" t="s">
         <v>182</v>
       </c>
       <c r="L65">
@@ -5720,7 +5743,7 @@
         <v>1.0096584946108644</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -5728,7 +5751,7 @@
         <v>-4.2648599999999997</v>
       </c>
       <c r="C66">
-        <f>EXP(B66)</f>
+        <f t="shared" si="1"/>
         <v>1.4053834532159389E-2</v>
       </c>
       <c r="H66" t="s">
@@ -5737,7 +5760,7 @@
       <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K66" s="16" t="s">
         <v>184</v>
       </c>
       <c r="L66">
@@ -5752,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5760,7 +5783,7 @@
         <v>-4.2648599999999997</v>
       </c>
       <c r="C67">
-        <f>EXP(B67)</f>
+        <f t="shared" ref="C67:C98" si="2">EXP(B67)</f>
         <v>1.4053834532159389E-2</v>
       </c>
       <c r="H67" t="s">
@@ -5769,7 +5792,7 @@
       <c r="I67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="14"/>
+      <c r="K67" s="17"/>
       <c r="L67">
         <v>65</v>
       </c>
@@ -5782,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -5790,7 +5813,7 @@
         <v>-5.1615700000000002</v>
       </c>
       <c r="C68">
-        <f>EXP(B68)</f>
+        <f t="shared" si="2"/>
         <v>5.7326922898036613E-3</v>
       </c>
       <c r="H68" t="s">
@@ -5799,7 +5822,7 @@
       <c r="I68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="14"/>
+      <c r="K68" s="17"/>
       <c r="L68">
         <v>66</v>
       </c>
@@ -5812,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -5821,7 +5844,7 @@
         <v>-4.639917480286857</v>
       </c>
       <c r="C69">
-        <f>EXP(B69)</f>
+        <f t="shared" si="2"/>
         <v>9.658494610858586E-3</v>
       </c>
       <c r="H69" t="s">
@@ -5830,7 +5853,7 @@
       <c r="I69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="14"/>
+      <c r="K69" s="17"/>
       <c r="L69">
         <v>67</v>
       </c>
@@ -5843,7 +5866,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -5860,7 +5883,7 @@
       <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="17"/>
       <c r="L70">
         <v>68</v>
       </c>
@@ -5873,7 +5896,7 @@
         <v>0.34999999999999992</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -5882,7 +5905,7 @@
         <v>0.10047061322131151</v>
       </c>
       <c r="C71">
-        <f>EXP(B71)</f>
+        <f t="shared" si="2"/>
         <v>1.1056911485255654</v>
       </c>
       <c r="H71" t="s">
@@ -5891,7 +5914,7 @@
       <c r="I71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="14"/>
+      <c r="K71" s="17"/>
       <c r="L71">
         <v>69</v>
       </c>
@@ -5904,7 +5927,7 @@
         <v>1.1263452678672681</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -5912,7 +5935,7 @@
         <v>-2.2978900000000002</v>
       </c>
       <c r="C72">
-        <f>EXP(B72)</f>
+        <f t="shared" si="2"/>
         <v>0.10047061322131151</v>
       </c>
       <c r="H72" t="s">
@@ -5921,7 +5944,7 @@
       <c r="I72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="14"/>
+      <c r="K72" s="17"/>
       <c r="L72">
         <v>70</v>
       </c>
@@ -5934,7 +5957,7 @@
         <v>1.1263452678672681</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>29</v>
       </c>
@@ -5942,7 +5965,7 @@
         <v>-2.5791200000000001</v>
       </c>
       <c r="C73">
-        <f>EXP(B73)</f>
+        <f t="shared" si="2"/>
         <v>7.5840714494688141E-2</v>
       </c>
       <c r="H73" t="s">
@@ -5951,7 +5974,7 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="14"/>
+      <c r="K73" s="17"/>
       <c r="L73">
         <v>71</v>
       </c>
@@ -5964,7 +5987,7 @@
         <v>1.1107351502063272</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -5972,7 +5995,7 @@
         <v>-4.9964500000000003</v>
       </c>
       <c r="C74">
-        <f>EXP(B74)</f>
+        <f t="shared" si="2"/>
         <v>6.7619092187067289E-3</v>
       </c>
       <c r="H74" t="s">
@@ -5981,7 +6004,7 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="17"/>
       <c r="L74">
         <v>72</v>
       </c>
@@ -5994,12 +6017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
       <c r="C75">
-        <f>EXP(B75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H75" t="s">
@@ -6008,20 +6031,20 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="17"/>
       <c r="L75">
         <v>73</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M75" s="25">
         <f>C28</f>
         <v>6</v>
       </c>
-      <c r="N75" s="24">
-        <f>(1-I58)*I39+I58*C28+I76</f>
-        <v>2.2591658697071351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N75" s="25">
+        <f>(1-I58)*I19+I58*C28+I76</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -6029,7 +6052,7 @@
         <v>-1.7529999999999999</v>
       </c>
       <c r="C76">
-        <f>EXP(B76)</f>
+        <f t="shared" si="2"/>
         <v>0.17325340282144272</v>
       </c>
       <c r="H76" t="s">
@@ -6038,20 +6061,20 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="14"/>
+      <c r="K76" s="17"/>
       <c r="L76">
         <v>74</v>
       </c>
-      <c r="M76" s="24">
+      <c r="M76" s="25">
         <f>C27</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="N76" s="24">
-        <f>(1-I57)*I39+I57*C27+I77</f>
-        <v>3.2636016958017668</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N76" s="25">
+        <f>(1-I57)*I18+I57*C27+I77</f>
+        <v>4.9999999999999991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -6059,7 +6082,7 @@
         <v>-0.16186300000000001</v>
       </c>
       <c r="C77">
-        <f>EXP(B77)</f>
+        <f t="shared" si="2"/>
         <v>0.85055772296658494</v>
       </c>
       <c r="H77" t="s">
@@ -6068,7 +6091,7 @@
       <c r="I77" s="2">
         <v>0</v>
       </c>
-      <c r="K77" s="15"/>
+      <c r="K77" s="18"/>
       <c r="L77">
         <v>75</v>
       </c>
@@ -6081,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -6089,7 +6112,7 @@
         <v>0.18232200000000001</v>
       </c>
       <c r="C78">
-        <f>EXP(B78)</f>
+        <f t="shared" si="2"/>
         <v>1.2000005318473723</v>
       </c>
       <c r="H78" t="s">
@@ -6098,7 +6121,7 @@
       <c r="I78" s="2">
         <v>0</v>
       </c>
-      <c r="K78" s="13" t="s">
+      <c r="K78" s="16" t="s">
         <v>185</v>
       </c>
       <c r="L78">
@@ -6113,7 +6136,7 @@
         <v>0.10188171314398353</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -6121,10 +6144,10 @@
         <v>0.26830799999999999</v>
       </c>
       <c r="C79">
-        <f>EXP(B79)</f>
+        <f t="shared" si="2"/>
         <v>1.307749864950517</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="17"/>
       <c r="L79">
         <v>77</v>
       </c>
@@ -6137,7 +6160,7 @@
         <v>8.1435254318368885E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -6145,10 +6168,10 @@
         <v>0.26830799999999999</v>
       </c>
       <c r="C80">
-        <f>EXP(B80)</f>
+        <f t="shared" si="2"/>
         <v>1.307749864950517</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="17"/>
       <c r="L80">
         <v>78</v>
       </c>
@@ -6161,7 +6184,7 @@
         <v>8.3211422423557259E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -6170,10 +6193,10 @@
         <v>0.26830799999999999</v>
       </c>
       <c r="C81">
-        <f>EXP(B81)</f>
+        <f t="shared" si="2"/>
         <v>1.307749864950517</v>
       </c>
-      <c r="K81" s="15"/>
+      <c r="K81" s="18"/>
       <c r="L81">
         <v>79</v>
       </c>
@@ -6203,5 +6226,3498 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Times New Roman"&amp;12&amp;K000000BNR - Uz intern&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">EXP(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> 0.0062^2</f>
+        <v>3.8439999999999998E-5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>400*C69</f>
+        <v>3.8633978443434343</v>
+      </c>
+      <c r="O3" t="b">
+        <f>M3=initial!M3</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <f>N3=initial!N3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q66" si="1">N3-M3</f>
+        <v>3.8633978443434343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <f>C73</f>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.0787907247453703</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <f xml:space="preserve"> 0.05^2</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.86700376630640397</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="e">
+        <f>B35</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="4">
+        <f>400*C67</f>
+        <v>5.6215338128637553</v>
+      </c>
+      <c r="O4" t="e">
+        <f>M4=initial!M4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" t="b">
+        <f>N4=initial!N4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.93510700000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.5474860241610293</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3">
+        <f>0.0658^2</f>
+        <v>4.3296400000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="e">
+        <f>B34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="4">
+        <f>400*C66</f>
+        <v>5.6215338128637553</v>
+      </c>
+      <c r="O5" t="e">
+        <f>M5=initial!M5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" t="b">
+        <f>N5=initial!N5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> 0.3721^2</f>
+        <v>0.13845840999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12" t="e">
+        <f>B32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N6" s="4">
+        <f>B59*100</f>
+        <v>1.1600000000000001E-12</v>
+      </c>
+      <c r="O6" t="e">
+        <f>M6=initial!M6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" t="b">
+        <f>N6=initial!N6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> 0.0034^2</f>
+        <v>1.1559999999999999E-5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <f>I8</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <f>B52</f>
+        <v>84.079700000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <f>B12*100</f>
+        <v>16.468900000000001</v>
+      </c>
+      <c r="O7" t="b">
+        <f>M7=initial!M7</f>
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <f>N7=initial!N7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="1"/>
+        <v>-67.610799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0.164689</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> 0.0023^2</f>
+        <v>5.2900000000000002E-6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f>B51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="4">
+        <f>B11*100</f>
+        <v>31.3687</v>
+      </c>
+      <c r="O8" t="e">
+        <f>M8=initial!M8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" t="b">
+        <f>N8=initial!N8</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.164689</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> 0.1454^2</f>
+        <v>2.1141159999999999E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <f>B58</f>
+        <v>-26.297700000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <f>B81*100</f>
+        <v>85.66837919999999</v>
+      </c>
+      <c r="O9" t="b">
+        <f>M9=initial!M9</f>
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <f>N9=initial!N9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>111.9660792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="e">
+        <f>100*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> 0.0051^2</f>
+        <v>2.6010000000000003E-5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10">
+        <f>I50/I65*(I17-I14+I65*I17*(I14-1))/((I14*-1)*(I17-1))</f>
+        <v>-6.9116794557613159E-2</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f>B18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="4">
+        <f>B14*100</f>
+        <v>13.357699999999999</v>
+      </c>
+      <c r="O10" t="e">
+        <f>M10=initial!M10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" t="b">
+        <f>N10=initial!N10</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0.31368699999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> 0.0488^2</f>
+        <v>2.3814400000000003E-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f>B37</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="4">
+        <f>B31*100</f>
+        <v>-194.96199999999999</v>
+      </c>
+      <c r="O11" t="e">
+        <f>M11=initial!M11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" t="b">
+        <f>N11=initial!N11</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>0.164689</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <f xml:space="preserve"> 0.0128^2</f>
+        <v>1.6384E-4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12">
+        <f>I51</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f>B22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="4">
+        <f>B19*100</f>
+        <v>84.079700000000003</v>
+      </c>
+      <c r="O12" t="e">
+        <f>M12=initial!M12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" t="b">
+        <f>N12=initial!N12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>-4.8832899999999997</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.5720609217937588E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <f xml:space="preserve"> 0.0018^2</f>
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13">
+        <f>0.1*I12</f>
+        <v>4.6946406588904595E-3</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f>B33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="4">
+        <f>400*C68</f>
+        <v>2.2930769159214646</v>
+      </c>
+      <c r="O13" t="e">
+        <f>M13=initial!M13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" t="b">
+        <f>N13=initial!N13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.133577</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.1429092667605822</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> 1.0099^2</f>
+        <v>1.0198980100000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(I15:I16)</f>
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4" t="e">
+        <f>B10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="4">
+        <f>100*B42</f>
+        <v>-157.28399999999999</v>
+      </c>
+      <c r="O14" t="e">
+        <f>M14=initial!M14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" t="b">
+        <f>N14=initial!N14</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>-2.19923</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.11088850965030168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <f xml:space="preserve"> 0.0144^2</f>
+        <v>2.0735999999999999E-4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <f>I16</f>
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15" s="4">
+        <f>(1-I4)*C25/(C17-I4*C17)</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="N15" s="4">
+        <f>C50</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="O15" t="b">
+        <f>M15=initial!M15</f>
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <f>N15=initial!N15</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1.91801</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.14689900046675919</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>2.9328059999999998</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4">
+        <f>I30*C23/C30-C50*C63+C50*C63*I9</f>
+        <v>-2.5494880162568734E-7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <f>M16=initial!M16</f>
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <f>N16=initial!N16</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5494880162568734E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.122029</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.88512269957214185</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>-1.46025</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4">
+        <f>C50</f>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="N17" s="4">
+        <f>I9*C50*(1+C68)/C59</f>
+        <v>1.1297868831373645</v>
+      </c>
+      <c r="O17" t="b">
+        <f>M17=initial!M17</f>
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <f>N17=initial!N17</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.801302795811921E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4">
+        <f>(1-C27)*C46+C46^(1+I44)/C77*C27/C50-I37*(C61-C59^I29*I47^(1-I29))*C61+I9*C50/C50*I37*(C61-C59^I29*I47^(1-I29))*C61^2/C59</f>
+        <v>1.6953127878839303E-6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <f>M18=initial!M18</f>
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <f>N18=initial!N18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.6953127878839303E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.84079700000000002</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4">
+        <f>C61</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <f>C77/C77*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="O19" t="b">
+        <f>M19=initial!M19</f>
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <f>N19=initial!N19</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1546319456101628E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.94079699999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.5620225367973446</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
+        <f>C17+C63*(C30-C30)+C21</f>
+        <v>3.2033365567177907</v>
+      </c>
+      <c r="N20" s="4">
+        <f>C46*C77+(1+C68)*C21/C59+C40/I23</f>
+        <v>3.2033364915705507</v>
+      </c>
+      <c r="O20" t="b">
+        <f>M20=initial!M20</f>
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <f>N20=initial!N20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.5147240047025434E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.84079700000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21" s="4">
+        <f>(1-I4)*C25/(C16-C16*I4)</f>
+        <v>6.807398258821264</v>
+      </c>
+      <c r="N21" s="4">
+        <f>C49</f>
+        <v>6.8073982588212605</v>
+      </c>
+      <c r="O21" t="b">
+        <f>M21=initial!M21</f>
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <f>N21=initial!N21</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4">
+        <f>I30*C23/C29-C49*C63+I8*C49*C63+C73*C63*C54*C59</f>
+        <v>-2.4617386515934925E-6</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <f>M22=initial!M22</f>
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <f>N22=initial!N22</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4617386515934925E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23" s="4">
+        <f>C49-I8*C49*(1+C67)/C59</f>
+        <v>7.6906658964724706E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f>C73*(1+C67)</f>
+        <v>7.6906567346997232E-2</v>
+      </c>
+      <c r="O23" t="b">
+        <f>M23=initial!M23</f>
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <f>N23=initial!N23</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.1617727474013755E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24" s="4">
+        <f>(1-C27)*C44+C44^(1+I44)/C76*C27/C49-I37*(C60-C59^I29*I47^(1-I29))*C60+I8*C49/C49*I37*(C60-C59^I29*I47^(1-I29))*C60^2/C59</f>
+        <v>1.3258941644480195E-6</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <f>M24=initial!M24</f>
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <f>N24=initial!N24</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.3258941644480195E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25" s="4">
+        <f>C60</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <f>C76/C76*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="O25" t="b">
+        <f>M25=initial!M25</f>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f>N25=initial!N25</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1546319456101628E-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4">
+        <f>C16+C63*(C29-C29)+(1+C67)*C9/C59</f>
+        <v>1.3424952266649002</v>
+      </c>
+      <c r="N26" s="4">
+        <f>C76*C44+C9</f>
+        <v>1.3424951734543942</v>
+      </c>
+      <c r="O26" t="b">
+        <f>M26=initial!M26</f>
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <f>N26=initial!N26</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.3210506001377667E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <f>LN(I18)</f>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="18"/>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27" s="4">
+        <f>(1+C67)*C9</f>
+        <v>1.1955962261981548</v>
+      </c>
+      <c r="N27" s="4">
+        <f>C54*C63*C29*C59</f>
+        <v>1.1955962991856997</v>
+      </c>
+      <c r="O27" t="b">
+        <f>M27=initial!M27</f>
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <f>N27=initial!N27</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="1"/>
+        <v>7.298754489681869E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <f>LN(I19)</f>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.158112794106546</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28" s="25">
+        <f>C41</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="N28" s="25">
+        <f>(1-I11)*C41+(1-I34/2*(C31*C24/C31-1)^2)*C31</f>
+        <v>5.693073362662453</v>
+      </c>
+      <c r="O28" t="b">
+        <f>M28=initial!M28</f>
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <f>N28=initial!N28</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3455801477491036E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>-2.95404</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>5.2128680095646571E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.30019780401748902</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <f>C64*(1-I34/2*(C31/C31*C24-1)^2-I34*(C31/C31*C24-1)*C31/C31*C24)+I7*C48/C48*C64*I34*(C31/C31*C24-1)*C24*C31/C31</f>
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <f>M29=initial!M29</f>
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <f>N29=initial!N29</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>-5.3536599999999997E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.94787124828124314</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4">
+        <f>(1-I4)/(C15-I4*C15)</f>
+        <v>9.0180669138182417</v>
+      </c>
+      <c r="N30" s="4">
+        <f>C48</f>
+        <v>9.0180669138182381</v>
+      </c>
+      <c r="O30" t="b">
+        <f>M30=initial!M30</f>
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <f>N30=initial!N30</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>-1.9496199999999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.1423281460072057</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2">
+        <v>7.9800595904463698</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="17"/>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31" s="25">
+        <f>C72*C53*C64*C59*(1-I11)+I7*C48*(C64*(1-I11)+C70*C75)-(I12*(C75-1)+I13/2*(C75-1)^2)</f>
+        <v>10.274354498030748</v>
+      </c>
+      <c r="N31" s="25">
+        <f>C48*C64</f>
+        <v>9.0180669138182381</v>
+      </c>
+      <c r="O31" t="b">
+        <f>M31=initial!M31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <f>N31=initial!N31</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.2562875842125099</v>
+      </c>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.0442671874948193</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="17"/>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32" s="25">
+        <f>C77</f>
+        <v>0.85055772296658494</v>
+      </c>
+      <c r="N32" s="25">
+        <f>I43*(1-I6)*C80/(C78*C47)</f>
+        <v>0.91914401958953551</v>
+      </c>
+      <c r="O32" t="b">
+        <f>M32=initial!M32</f>
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <f>N32=initial!N32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>N32-M32</f>
+        <v>6.8586296622950571E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="e">
+        <f>400*(EXP(#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.7753737710421298</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="17"/>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33" s="25">
+        <f>C76</f>
+        <v>0.17325340282144272</v>
+      </c>
+      <c r="N33" s="25">
+        <f>(1-I43)*(1-I6)*C80/(C78*C45)</f>
+        <v>0.18722379431135994</v>
+      </c>
+      <c r="O33" t="b">
+        <f>M33=initial!M33</f>
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <f>N33=initial!N33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3970391489917217E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="e">
+        <f>400*EXP(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10.030556224800799</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="17"/>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34" s="4">
+        <f>C48-C72*(1+C66)</f>
+        <v>8.9161843032233694</v>
+      </c>
+      <c r="N34" s="4">
+        <f>I7*C48*(1+C66)/C59</f>
+        <v>8.9161852006742546</v>
+      </c>
+      <c r="O34" t="b">
+        <f>M34=initial!M34</f>
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <f>N34=initial!N34</f>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="1"/>
+        <v>8.9745088516224314E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="e">
+        <f>400*EXP(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="11">
+        <v>8.9148195803466894</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="17"/>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35" s="4">
+        <f>C70</f>
+        <v>0.18962151710576272</v>
+      </c>
+      <c r="N35" s="4">
+        <f>I12+I13*(C75-1)</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+      <c r="O35" t="b">
+        <f>M35=initial!M35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <f>N35=initial!N35</f>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.14267511051685813</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="2">
+        <v>33.770526501639502</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="17"/>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36" s="4">
+        <f>C15+(1+C66)*C7/C59+C77*C47+C76*C45+C64*C43+(I12*(C75-1)+I13/2*(C75-1)^2)*C43</f>
+        <v>8.0089971827283506</v>
+      </c>
+      <c r="N36" s="4">
+        <f>C80/C78+C7+C64*(1-I11)*C43</f>
+        <v>8.8819864720743062</v>
+      </c>
+      <c r="O36" t="b">
+        <f>M36=initial!M36</f>
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <f>N36=initial!N36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87298928934595565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="e">
+        <f>#REF!*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="2">
+        <v>107.352040072465</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37" s="25">
+        <f>C80</f>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="N37" s="25">
+        <f>C3*(C75*C43)^I6*(C47^I43*C45^(1-I43))^(1-I6)</f>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="O37" t="b">
+        <f>M37=initial!M37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <f>N37=initial!N37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>-3.7936899999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38">
+        <v>0.35</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38" s="25">
+        <f>(1+C66)*C7</f>
+        <v>1.387693470358798</v>
+      </c>
+      <c r="N38" s="25">
+        <f>C53*C64*C59*C43*(1-I11)</f>
+        <v>1.9427608258293587</v>
+      </c>
+      <c r="O38" t="b">
+        <f>M38=initial!M38</f>
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <f>N38=initial!N38</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55506735547056074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>-3.7936899999999998</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>0.7</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39" s="25">
+        <f>C70</f>
+        <v>0.18962151710576272</v>
+      </c>
+      <c r="N39" s="25">
+        <f>I6*C3*C75^(I6-1)*C43^(I6-1)*(C47^I43*C45^(1-I43))^(1-I6)/C78</f>
+        <v>0.18962151710576272</v>
+      </c>
+      <c r="O39" t="b">
+        <f>M39=initial!M39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <f>N39=initial!N39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>-1.52345</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.2179586310557865</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40">
+        <f>I35/(I35-1)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40" s="4">
+        <f>C65</f>
+        <v>1.0027439437292352E-2</v>
+      </c>
+      <c r="N40" s="4">
+        <f>-I35*(C42/C5-I65)*(C42/C5)^2+C69</f>
+        <v>1.0164845927947997E-2</v>
+      </c>
+      <c r="O40" t="b">
+        <f>M40=initial!M40</f>
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <f>N40=initial!N40</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3740649065564423E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>1.73925</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <f>I34/(I34-1)</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41" s="25">
+        <f>C42*C59</f>
+        <v>0.20745517225004623</v>
+      </c>
+      <c r="N41" s="25">
+        <f>(1-I10)*C42/C26+C38</f>
+        <v>0.24430618649360389</v>
+      </c>
+      <c r="O41" t="b">
+        <f>M41=initial!M41</f>
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <f>N41=initial!N41</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6851014243557662E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>-1.57284</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.20745517225004384</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <f>I35/(I35-1)</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42" s="25">
+        <f>I20*C20</f>
+        <v>2.5620225367973446</v>
+      </c>
+      <c r="N42" s="25">
+        <f>I23*C21</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="O42" t="b">
+        <f>M42=initial!M42</f>
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <f>N42=initial!N42</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.24380867965169584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>1.73925</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43" s="4">
+        <f>I20*C8</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="N43" s="4">
+        <f>I22*C9</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="O43" t="b">
+        <f>M43=initial!M43</f>
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <f>N43=initial!N43</f>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>-5.8133200000000003E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="15"/>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44" s="4">
+        <f>I20*C6</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="N44" s="4">
+        <f>I21*C7</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="O44" t="b">
+        <f>M44=initial!M44</f>
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <f>N44=initial!N44</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>-5.8133200000000003E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="11">
+        <v>2.0038478018082402</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="15"/>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45" s="25">
+        <f>C8+C6</f>
+        <v>2.5474877255888204</v>
+      </c>
+      <c r="N45" s="25">
+        <f>C20+C42</f>
+        <v>2.7694777090473885</v>
+      </c>
+      <c r="O45" t="b">
+        <f>M45=initial!M45</f>
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <f>N45=initial!N45</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22198998345856813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>-0.26297700000000002</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.303247771697294</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46" s="13">
+        <f>-1+C57/(C57-1)-C57/(C57-1)*C69/C68-I33*(C68/C68-(C68/C68)^I27)*C68/C68+I9*(C50/C50)*I33*(C68/C68-(C68/C68)^I27)*((C68/C68)^2)*(C20/C20)</f>
+        <v>-7.104953419976697</v>
+      </c>
+      <c r="N46" s="13">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <f>M46=initial!M46</f>
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <f>N46=initial!N46</f>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="1"/>
+        <v>7.104953419976697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>-0.26297700000000002</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47" s="13">
+        <f>1-C55/(C55-1)+C55/(C55-1)*C65/C66-I31*(C66/C66-(C66/C66)^I25)*C66/C66+I9*(C50/C50)*I31*(C66/C66-(C66/C66)^I25)*((C66/C66)^2)*(C6/C6)</f>
+        <v>-1.5540777321516712</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <f>M47=initial!M47</f>
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <f>N47=initial!N47</f>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5540777321516712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>2.19923</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>9.0180669138182381</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48">
+        <f>I50*I15/(I15-1)</f>
+        <v>1.4655630697386977E-2</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48" s="13">
+        <f>1-C56/(C56-1)+C56/(C56-1)*C65/C67-I32*(C67/C67-(C67/C67)^I25)*C67/C67+I9*(C50/C50)*I32*(C67/C67-(C67/C67)^I25)*((C67/C67)^2)*(C8/C8)</f>
+        <v>-1.8737340182786735</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <f>M48=initial!M48</f>
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
+        <f>N48=initial!N48</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8737340182786735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>1.91801</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>6.8073982588212605</v>
+      </c>
+      <c r="H49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49">
+        <f>I50*I16/(I16-1)</f>
+        <v>1.4655630697386977E-2</v>
+      </c>
+      <c r="K49" s="22"/>
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49" s="13">
+        <f>C38</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="N49" s="13">
+        <f>C67*C8+C66*C6-C68*C20-I33/2*((C68/C68-1)^2*C68*C20)-I31/2*((C66/C66-1)^2*C66*C6)-I32/2*((C67/C67-1)^2*C67*C8)-I35/2*((C42/C6-I65)^2*C42)</f>
+        <v>1.7606103194363076E-2</v>
+      </c>
+      <c r="O49" t="b">
+        <f>M49=initial!M49</f>
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <f>N49=initial!N49</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.9062745288764135E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0.122029</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.1297868651243366</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50">
+        <f>(I47/I9-1)*(I17-1)/I17</f>
+        <v>9.6584946108585878E-3</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50" s="25">
+        <f>C40</f>
+        <v>0.2179586310557865</v>
+      </c>
+      <c r="N50" s="25">
+        <f>C79*(1-1/C78-I36/2*(C59-C59^I28*I47^(1-I28))^2)</f>
+        <v>0.39255702676170767</v>
+      </c>
+      <c r="O50" t="b">
+        <f>M50=initial!M50</f>
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <f>N50=initial!N50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17459839570592117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="e">
+        <f>B18*100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51">
+        <f>-(1-I11)-I38*(1-I11)*I47/I7*(1/(1+I48)-I7/I47)+1/I7</f>
+        <v>4.6946406588904588E-2</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="24"/>
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51" s="4">
+        <f>1-C28+C28/C78-I36*(C59-C59^I28*I47^(1-I28))*C59+I9*C50/C50*I36*(C59-C59^I28*I47^(1-I28))*C59*C79/C79</f>
+        <v>-2.2160297375938605E-6</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <f>M51=initial!M51</f>
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <f>N51=initial!N51</f>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2160297375938605E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52">
+        <f>B21*100</f>
+        <v>84.079700000000003</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>3.2760441811662184E+36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.93816527333293998</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52" s="4">
+        <f>C14</f>
+        <v>1.1429092667605822</v>
+      </c>
+      <c r="N52" s="4">
+        <f>I23*C17+I22*C16+I21*C15</f>
+        <v>1.1429102096892025</v>
+      </c>
+      <c r="O52" t="b">
+        <f>M52=initial!M52</f>
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
+        <f>N52=initial!N52</f>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4292862029554669E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <f>LN(I38)</f>
+        <v>-1.0498221244986778</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="H53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.92187271910220603</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="15"/>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53" s="4">
+        <f>C12</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="N53" s="4">
+        <f>I20*C8</f>
+        <v>1.1790263844816</v>
+      </c>
+      <c r="O53" t="b">
+        <f>M53=initial!M53</f>
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <f>N53=initial!N53</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <f>LN(I39)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.57169238371417097</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="15"/>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54" s="4">
+        <f>C11</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="N54" s="4">
+        <f>I20*C6</f>
+        <v>1.3684613411072202</v>
+      </c>
+      <c r="O54" t="b">
+        <f>M54=initial!M54</f>
+        <v>1</v>
+      </c>
+      <c r="P54" t="b">
+        <f>N54=initial!N54</f>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <f>LN(I40)</f>
+        <v>0.11897811492439229</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="H55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.38595343816817801</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="15"/>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55" s="4">
+        <f>C5</f>
+        <v>2.5474860241610293</v>
+      </c>
+      <c r="N55" s="4">
+        <f>C11+C12</f>
+        <v>2.5474877255888204</v>
+      </c>
+      <c r="O55" t="b">
+        <f>M55=initial!M55</f>
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <f>N55=initial!N55</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7014277911009401E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <f>LN(I41)</f>
+        <v>0.1050220935852305</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.813022758608552</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="15"/>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56" s="4">
+        <f>C19</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="N56" s="4">
+        <f>I23*C21</f>
+        <v>2.3182138571456488</v>
+      </c>
+      <c r="O56" t="b">
+        <f>M56=initial!M56</f>
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
+        <f>N56=initial!N56</f>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <f>LN(I42)</f>
+        <v>0.11897811492439229</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.59618644088413197</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="15"/>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57" s="4">
+        <f>C79</f>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="N57" s="4">
+        <f>I21*C80</f>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="O57" t="b">
+        <f>M57=initial!M57</f>
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <f>N57=initial!N57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58">
+        <f>B46*100</f>
+        <v>-26.297700000000003</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>3.7936215461900084E-12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.29418223956738399</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="15"/>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58" s="4">
+        <f>C39</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="N58" s="4">
+        <f>I20*C38</f>
+        <v>2.2512377723239489E-2</v>
+      </c>
+      <c r="O58" t="b">
+        <f>M58=initial!M58</f>
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <f>N58=initial!N58</f>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.1600000000000001E-14</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.75048187308431102</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="15"/>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59" s="4">
+        <f>I21*C47</f>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="N59" s="4">
+        <f>I23*C46</f>
+        <v>0.76875957857813226</v>
+      </c>
+      <c r="O59" t="b">
+        <f>M59=initial!M59</f>
+        <v>1</v>
+      </c>
+      <c r="P59" t="b">
+        <f>N59=initial!N59</f>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.90129485520181996</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="15"/>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60" s="4">
+        <f>I21*C45</f>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="N60" s="4">
+        <f>I22*C44</f>
+        <v>0.94352426163466019</v>
+      </c>
+      <c r="O60" t="b">
+        <f>M60=initial!M60</f>
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
+        <f>N60=initial!N60</f>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.92237838275307804</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="15"/>
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61" s="4">
+        <f>I24</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <f>I23*C30+I22*C29</f>
+        <v>0.99999992837688967</v>
+      </c>
+      <c r="O61" t="b">
+        <f>M61=initial!M61</f>
+        <v>1</v>
+      </c>
+      <c r="P61" t="b">
+        <f>N61=initial!N61</f>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.1623110331486828E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.87390121347579897</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="15"/>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62" s="4">
+        <f>C41</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="N62" s="4">
+        <f>I21*C43</f>
+        <v>5.6930720170823053</v>
+      </c>
+      <c r="O62" t="b">
+        <f>M62=initial!M62</f>
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
+        <f>N62=initial!N62</f>
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>3.48936</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>32.76497141282978</v>
+      </c>
+      <c r="H63" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.85122967386455495</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="15"/>
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63" s="25">
+        <f>C81</f>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="N63" s="25">
+        <f>C14+1*(C41-(1-I11)*C41)</f>
+        <v>1.2852360671876399</v>
+      </c>
+      <c r="O63" t="b">
+        <f>M63=initial!M63</f>
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <f>N63=initial!N63</f>
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.0701008738859061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.89273135289954697</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64" s="4">
+        <f>C62</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <f>(C77+C76)/(C76+C77)*C59</f>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="O64" t="b">
+        <f>M64=initial!M64</f>
+        <v>1</v>
+      </c>
+      <c r="P64" t="b">
+        <f>N64=initial!N64</f>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1546319456101628E-14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>-4.60243</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1.0027439437292352E-2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>0.09</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65" s="4">
+        <f>(1+C69)</f>
+        <v>1.0096584946108587</v>
+      </c>
+      <c r="N65" s="4">
+        <f>(1+I50)^(1-I59)*(1+C69)^I59*((C59/I47)^I45*(C81/C81)^I46)^(1-I59)*(1+I66)</f>
+        <v>1.0096584946108644</v>
+      </c>
+      <c r="O65" t="b">
+        <f>M65=initial!M65</f>
+        <v>1</v>
+      </c>
+      <c r="P65" t="b">
+        <f>N65=initial!N65</f>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="1"/>
+        <v>5.773159728050814E-15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <v>-4.2648599999999997</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1.4053834532159389E-2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66" s="4">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="4">
+        <f>1-I55*1+I55*C25+I67</f>
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <f>M66=initial!M66</f>
+        <v>1</v>
+      </c>
+      <c r="P66" t="b">
+        <f>N66=initial!N66</f>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67">
+        <v>-4.2648599999999997</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C81" si="2">EXP(B67)</f>
+        <v>1.4053834532159389E-2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17"/>
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67" s="4">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="N67" s="4">
+        <f>1-I52*1+I52*C3+I68</f>
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <f>M67=initial!M67</f>
+        <v>1</v>
+      </c>
+      <c r="P67" t="b">
+        <f>N67=initial!N67</f>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" ref="Q67:Q81" si="3">N67-M67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>-5.1615700000000002</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>5.7326922898036613E-3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="17"/>
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68" s="4">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="4">
+        <f>1-I53*1+I53*C23+I69</f>
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <f>M68=initial!M68</f>
+        <v>1</v>
+      </c>
+      <c r="P68" t="b">
+        <f>N68=initial!N68</f>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f>LN(I50)</f>
+        <v>-4.639917480286857</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>9.658494610858586E-3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69" s="4">
+        <f>C54</f>
+        <v>0.7</v>
+      </c>
+      <c r="N69" s="4">
+        <f>(1-I61)*I39+I61*C54+I70</f>
+        <v>0.7</v>
+      </c>
+      <c r="O69" t="b">
+        <f>M69=initial!M69</f>
+        <v>1</v>
+      </c>
+      <c r="P69" t="b">
+        <f>N69=initial!N69</f>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="26">
+        <v>-1.6627252087556204</v>
+      </c>
+      <c r="C70">
+        <f>EXP(B70)</f>
+        <v>0.18962151710576272</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70" s="4">
+        <f>C53</f>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="N70" s="4">
+        <f>(1-I60)*I38+I60*C53+I71</f>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="O70" t="b">
+        <f>M70=initial!M70</f>
+        <v>1</v>
+      </c>
+      <c r="P70" t="b">
+        <f>N70=initial!N70</f>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <f>C72</f>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>1.1056911485255654</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="17"/>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71" s="4">
+        <f>C57</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="N71" s="4">
+        <f>(1-I64)*I42+I64*C57+I72</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="O71" t="b">
+        <f>M71=initial!M71</f>
+        <v>1</v>
+      </c>
+      <c r="P71" t="b">
+        <f>N71=initial!N71</f>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>-2.2978900000000002</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="H72" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72" s="4">
+        <f>C55</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="N72" s="4">
+        <f>(1-I62)*I40+I62*C55+I73</f>
+        <v>1.1263452678672681</v>
+      </c>
+      <c r="O72" t="b">
+        <f>M72=initial!M72</f>
+        <v>1</v>
+      </c>
+      <c r="P72" t="b">
+        <f>N72=initial!N72</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>-2.5791200000000001</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="17"/>
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73" s="4">
+        <f>C56</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="N73" s="4">
+        <f>(1-I63)*I41+I63*C56+I74</f>
+        <v>1.1107351502063272</v>
+      </c>
+      <c r="O73" t="b">
+        <f>M73=initial!M73</f>
+        <v>1</v>
+      </c>
+      <c r="P73" t="b">
+        <f>N73=initial!N73</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>-4.9964500000000003</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>6.7619092187067289E-3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="17"/>
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74" s="4">
+        <f>C24</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
+        <f>1-I54*1+I54*C24+I75</f>
+        <v>1</v>
+      </c>
+      <c r="O74" t="b">
+        <f>M74=initial!M74</f>
+        <v>1</v>
+      </c>
+      <c r="P74" t="b">
+        <f>N74=initial!N74</f>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75" s="25">
+        <f>C28</f>
+        <v>6</v>
+      </c>
+      <c r="N75" s="25">
+        <f>(1-I58)*I19+I58*C28+I76</f>
+        <v>6</v>
+      </c>
+      <c r="O75" t="b">
+        <f>M75=initial!M75</f>
+        <v>1</v>
+      </c>
+      <c r="P75" t="b">
+        <f>N75=initial!N75</f>
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>-1.7529999999999999</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>0.17325340282144272</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76" s="25">
+        <f>C27</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="N76" s="25">
+        <f>(1-I57)*I18+I57*C27+I77</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="O76" t="b">
+        <f>M76=initial!M76</f>
+        <v>1</v>
+      </c>
+      <c r="P76" t="b">
+        <f>N76=initial!N76</f>
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>-0.16186300000000001</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.85055772296658494</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="18"/>
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77" s="4">
+        <f>C26</f>
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <f>1-I56*1+I56*C26+I78</f>
+        <v>1</v>
+      </c>
+      <c r="O77" t="b">
+        <f>M77=initial!M77</f>
+        <v>1</v>
+      </c>
+      <c r="P77" t="b">
+        <f>N77=initial!N77</f>
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78">
+        <v>0.18232200000000001</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>1.2000005318473723</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78" s="4">
+        <f>B71</f>
+        <v>0.10047061322131151</v>
+      </c>
+      <c r="N78" s="4">
+        <f>C48-I7*C48*(1+C66)/C59</f>
+        <v>0.10188171314398353</v>
+      </c>
+      <c r="O78" t="b">
+        <f>M78=initial!M78</f>
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <f>N78=initial!N78</f>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4110999226720211E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="26">
+        <v>0.85668379199999989</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79" s="4">
+        <f>B4</f>
+        <v>7.5840714494688141E-2</v>
+      </c>
+      <c r="N79" s="4">
+        <f>C42/C5</f>
+        <v>8.1435254318368885E-2</v>
+      </c>
+      <c r="O79" t="b">
+        <f>M79=initial!M79</f>
+        <v>1</v>
+      </c>
+      <c r="P79" t="b">
+        <f>N79=initial!N79</f>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5945398236807442E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="26">
+        <v>0.85668379199999989</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80" s="4">
+        <f>C13</f>
+        <v>7.5720609217937588E-3</v>
+      </c>
+      <c r="N80" s="4">
+        <f>C8/(C8+C6)*C67+C6/(C8+C6)*C66-C68</f>
+        <v>8.3211422423557259E-3</v>
+      </c>
+      <c r="O80" t="b">
+        <f>M80=initial!M80</f>
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <f>N80=initial!N80</f>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="3"/>
+        <v>7.4908132056196713E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="26">
+        <v>0.85668379199999989</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>2.3553369410735461</v>
+      </c>
+      <c r="K81" s="18"/>
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81" s="4">
+        <f>C74</f>
+        <v>6.7619092187067289E-3</v>
+      </c>
+      <c r="N81" s="4">
+        <f>0.5*C67+0.5*C66-C68</f>
+        <v>8.3211422423557276E-3</v>
+      </c>
+      <c r="O81" t="b">
+        <f>M81=initial!M81</f>
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
+        <f>N81=initial!N81</f>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5592330236489987E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K52:K64"/>
+    <mergeCell ref="K66:K77"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K39"/>
+    <mergeCell ref="K40:K49"/>
+    <mergeCell ref="K50:K51"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O1:P1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Times New Roman"&amp;12&amp;K000000BNR - Uz intern&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>